--- a/Summary wing excel files/Wing descriptive data.xlsx
+++ b/Summary wing excel files/Wing descriptive data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\Dropbox\Wing project\Summary wing excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\Summary wing excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Descriptive table" sheetId="5" r:id="rId2"/>
-    <sheet name="Field repeat ID" sheetId="3" r:id="rId3"/>
-    <sheet name="Lab reared groups #" sheetId="2" r:id="rId4"/>
-    <sheet name="Lab reared repeat ID" sheetId="4" r:id="rId5"/>
+    <sheet name="Lab Descriptive table" sheetId="5" r:id="rId2"/>
+    <sheet name="Field descriptive table" sheetId="6" r:id="rId3"/>
+    <sheet name="Field repeat ID" sheetId="3" r:id="rId4"/>
+    <sheet name="Lab reared groups #" sheetId="2" r:id="rId5"/>
+    <sheet name="Lab reared repeat ID" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="264">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -646,13 +647,264 @@
   </si>
   <si>
     <t>28:M</t>
+  </si>
+  <si>
+    <t>Average Wing length (mm)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Average wing length</t>
+  </si>
+  <si>
+    <t>Average CS 13</t>
+  </si>
+  <si>
+    <t>Average CS 18</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>2.71±0.11</t>
+  </si>
+  <si>
+    <t>2.79±0.12</t>
+  </si>
+  <si>
+    <t>2.64±0.13</t>
+  </si>
+  <si>
+    <t>2.65±0.11</t>
+  </si>
+  <si>
+    <t>2.45±0.12</t>
+  </si>
+  <si>
+    <t>2.57±0.15</t>
+  </si>
+  <si>
+    <t>2.75±0.09</t>
+  </si>
+  <si>
+    <t>2.77±0.1</t>
+  </si>
+  <si>
+    <t>2.61±0.13</t>
+  </si>
+  <si>
+    <t>2.47±0.1</t>
+  </si>
+  <si>
+    <t>2.58±0.13</t>
+  </si>
+  <si>
+    <t>2.75±0.16</t>
+  </si>
+  <si>
+    <t>2.89±0.15</t>
+  </si>
+  <si>
+    <t>2.61±0.08</t>
+  </si>
+  <si>
+    <t>2.68±0.15</t>
+  </si>
+  <si>
+    <t>2.4±0.13</t>
+  </si>
+  <si>
+    <t>2.51±0.11</t>
+  </si>
+  <si>
+    <t>2.77±0.13</t>
+  </si>
+  <si>
+    <t>2.78±0.11</t>
+  </si>
+  <si>
+    <t>2.68±0.14</t>
+  </si>
+  <si>
+    <t>2.5±0.1</t>
+  </si>
+  <si>
+    <t>2.57±0.13</t>
+  </si>
+  <si>
+    <t>2.75±0.11</t>
+  </si>
+  <si>
+    <t>2.8±0.16</t>
+  </si>
+  <si>
+    <t>2.66±0.08</t>
+  </si>
+  <si>
+    <t>2.76±0.12</t>
+  </si>
+  <si>
+    <t>2.52±0.1</t>
+  </si>
+  <si>
+    <t>2.79±0.11</t>
+  </si>
+  <si>
+    <t>2.86±0.14</t>
+  </si>
+  <si>
+    <t>2.66±0.12</t>
+  </si>
+  <si>
+    <t>2.77±0.18</t>
+  </si>
+  <si>
+    <t>2.53±0.16</t>
+  </si>
+  <si>
+    <t>2.62±0.17</t>
+  </si>
+  <si>
+    <t>3.05±0.14</t>
+  </si>
+  <si>
+    <t>2.92±0.14</t>
+  </si>
+  <si>
+    <t>2.74±0.11</t>
+  </si>
+  <si>
+    <t>2.8±0.1</t>
+  </si>
+  <si>
+    <t>2.63±0.11</t>
+  </si>
+  <si>
+    <t>2.67±0.13</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Average wing length (mm)</t>
+  </si>
+  <si>
+    <r>
+      <t>2.92</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.97</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.95</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +935,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -692,7 +963,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -763,11 +1034,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -794,8 +1074,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -806,9 +1107,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,12 +1430,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1165,27 +1465,27 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -1197,25 +1497,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G45"/>
+  <dimension ref="B1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
@@ -1231,21 +1541,41 @@
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="H2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="23">
         <v>-2.8639999999999999</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="23">
         <v>17</v>
       </c>
       <c r="F3" s="9">
@@ -1254,76 +1584,358 @@
       <c r="G3" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="H3" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="17">
+        <v>2.71</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M3" t="str">
+        <f>K3&amp;$M$2&amp;L3</f>
+        <v>2.71±0.11</v>
+      </c>
+      <c r="N3">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="O3">
+        <v>0.10562310104179</v>
+      </c>
+      <c r="P3">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="Q3">
+        <v>2.7927499999999998</v>
+      </c>
+      <c r="R3" s="15">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="S3" s="15">
+        <v>0.10562310104179</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="9">
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="H4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="17">
+        <v>2.79</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M44" si="0">K4&amp;$M$2&amp;L4</f>
+        <v>2.79±0.12</v>
+      </c>
+      <c r="N4">
+        <v>2.7927499999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.11752037897183699</v>
+      </c>
+      <c r="P4">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>2.6454499999999999</v>
+      </c>
+      <c r="R4" s="15">
+        <v>2.7927499999999998</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.11752037897183699</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="9">
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="H5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="17">
+        <v>2.64</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>2.64±0.13</v>
+      </c>
+      <c r="N5">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="P5">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="Q5">
+        <v>2.5722499999999999</v>
+      </c>
+      <c r="R5" s="15">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="W5" t="s">
+        <v>211</v>
+      </c>
+      <c r="X5" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="9">
         <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="H6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="17">
+        <v>2.65</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>2.65±0.11</v>
+      </c>
+      <c r="N6">
+        <v>2.6454499999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.11252530709508</v>
+      </c>
+      <c r="P6">
+        <v>0.10562310104179</v>
+      </c>
+      <c r="Q6">
+        <v>0.11752037897183699</v>
+      </c>
+      <c r="R6" s="15">
+        <v>2.6454499999999999</v>
+      </c>
+      <c r="S6" s="15">
+        <v>0.11252530709508</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE6">
+        <v>2.7927499999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="9">
         <v>20</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="H7" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>2.45±0.12</v>
+      </c>
+      <c r="N7">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="P7">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="Q7">
+        <v>0.11252530709508</v>
+      </c>
+      <c r="R7" s="15">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="W7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE7">
+        <v>2.7706400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="12"/>
-      <c r="C9" s="10" t="s">
+      <c r="H8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17">
+        <v>2.57</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>2.57±0.15</v>
+      </c>
+      <c r="N8">
+        <v>2.5722499999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.14913394721030601</v>
+      </c>
+      <c r="P8">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="Q8">
+        <v>0.14913394721030601</v>
+      </c>
+      <c r="R8" s="15">
+        <v>2.5722499999999999</v>
+      </c>
+      <c r="S8" s="15">
+        <v>0.14913394721030601</v>
+      </c>
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8">
+        <v>2.8869130434782599</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="23">
         <v>-3.028</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="23">
         <v>50</v>
       </c>
       <c r="F9" s="9">
@@ -1332,76 +1944,418 @@
       <c r="G9" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="H9" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17">
+        <v>2.75</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>2.75±0.09</v>
+      </c>
+      <c r="N9">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="O9">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="P9">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="Q9">
+        <v>2.7706400000000002</v>
+      </c>
+      <c r="R9" s="15">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="S9" s="15">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE9">
+        <v>2.7814056539090899</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="9">
         <v>25</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="H10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="17">
+        <v>2.77</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>2.77±0.1</v>
+      </c>
+      <c r="N10">
+        <v>2.7706400000000002</v>
+      </c>
+      <c r="O10">
+        <v>9.6553905496705103E-2</v>
+      </c>
+      <c r="P10">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="Q10">
+        <v>2.6054347826086999</v>
+      </c>
+      <c r="R10" s="15">
+        <v>2.7706400000000002</v>
+      </c>
+      <c r="S10" s="15">
+        <v>9.6553905496705103E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE10">
+        <v>2.7998500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="9">
         <v>25</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="H11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="17">
+        <v>2.61</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.13</v>
+      </c>
+      <c r="N11">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="O11">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="P11">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="Q11">
+        <v>2.5823478260869601</v>
+      </c>
+      <c r="R11" s="15">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="S11" s="15">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="W11" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE11">
+        <v>2.8631052631578902</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="9">
         <v>23</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17">
+        <v>2.61</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.13</v>
+      </c>
+      <c r="N12">
+        <v>2.6054347826086999</v>
+      </c>
+      <c r="O12">
+        <v>0.128136584119147</v>
+      </c>
+      <c r="P12">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="Q12">
+        <v>9.6553905496705103E-2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>2.6054347826086999</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0.128136584119147</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC12">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE12">
+        <v>2.9157500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="9">
         <v>21</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="H13" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>2.47±0.1</v>
+      </c>
+      <c r="N13">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="O13">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="P13">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="Q13">
+        <v>0.128136584119147</v>
+      </c>
+      <c r="R13" s="15">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="S13" s="15">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="W13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13">
+        <v>24</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC13">
+        <v>24</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE13">
+        <v>2.6454499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="9">
         <v>23</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="12"/>
-      <c r="C15" s="10" t="s">
+      <c r="H14" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="17">
+        <v>2.58</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>2.58±0.13</v>
+      </c>
+      <c r="N14">
+        <v>2.5823478260869601</v>
+      </c>
+      <c r="O14">
+        <v>0.13455536498058801</v>
+      </c>
+      <c r="P14">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="Q14">
+        <v>0.13455536498058801</v>
+      </c>
+      <c r="R14" s="15">
+        <v>2.5823478260869601</v>
+      </c>
+      <c r="S14" s="15">
+        <v>0.13455536498058801</v>
+      </c>
+      <c r="W14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14">
+        <v>24</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14">
+        <v>24</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE14">
+        <v>2.6054347826086999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="23">
         <v>-8.7420000000000009</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="23">
         <v>47</v>
       </c>
       <c r="F15" s="9">
@@ -1410,76 +2364,418 @@
       <c r="G15" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="17">
+        <v>2.75</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>2.75±0.16</v>
+      </c>
+      <c r="N15">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="O15">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="P15">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="Q15">
+        <v>2.8869130434782599</v>
+      </c>
+      <c r="R15" s="15">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="W15" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15">
+        <v>24</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15">
+        <v>24</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE15">
+        <v>2.67814285714286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="9">
         <v>23</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="H16" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="17">
+        <v>2.89</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.89±0.15</v>
+      </c>
+      <c r="N16">
+        <v>2.8869130434782599</v>
+      </c>
+      <c r="O16">
+        <v>0.150985825055165</v>
+      </c>
+      <c r="P16">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="Q16">
+        <v>2.67814285714286</v>
+      </c>
+      <c r="R16" s="15">
+        <v>2.8869130434782599</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0.150985825055165</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>24</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC16">
+        <v>24</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE16">
+        <v>2.6828999143600001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="9">
         <v>24</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="H17" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17">
+        <v>2.61</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.08</v>
+      </c>
+      <c r="N17">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="O17">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="P17">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="Q17">
+        <v>2.5086842105263201</v>
+      </c>
+      <c r="R17" s="15">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="S17" s="15">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="W17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X17">
+        <v>24</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17">
+        <v>24</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE17">
+        <v>2.7643499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="9">
         <v>21</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="H18" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>2.68±0.15</v>
+      </c>
+      <c r="N18">
+        <v>2.67814285714286</v>
+      </c>
+      <c r="O18">
+        <v>0.15157779709254399</v>
+      </c>
+      <c r="P18">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="Q18">
+        <v>0.150985825055165</v>
+      </c>
+      <c r="R18" s="15">
+        <v>2.67814285714286</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0.15157779709254399</v>
+      </c>
+      <c r="W18" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z18">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC18">
+        <v>24</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE18">
+        <v>2.7706</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="9">
         <v>20</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="H19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>2.4±0.13</v>
+      </c>
+      <c r="N19">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="O19">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="P19">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.15157779709254399</v>
+      </c>
+      <c r="R19" s="15">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19">
+        <v>24</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z19">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19">
+        <v>24</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE19">
+        <v>2.7989000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="9">
         <v>20</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="12"/>
-      <c r="C21" s="10" t="s">
+      <c r="H20" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="17">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>2.51±0.11</v>
+      </c>
+      <c r="N20">
+        <v>2.5086842105263201</v>
+      </c>
+      <c r="O20">
+        <v>0.10870962986659</v>
+      </c>
+      <c r="P20">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="Q20">
+        <v>0.10870962986659</v>
+      </c>
+      <c r="R20" s="15">
+        <v>2.5086842105263201</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0.10870962986659</v>
+      </c>
+      <c r="W20" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <v>28</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z20">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC20">
+        <v>28</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE20">
+        <v>2.5722499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="23">
         <v>-9.2230000000000008</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="23">
         <v>45</v>
       </c>
       <c r="F21" s="9">
@@ -1488,78 +2784,420 @@
       <c r="G21" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="H21" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17">
+        <v>2.77</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>2.77±0.13</v>
+      </c>
+      <c r="N21">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="O21">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="P21">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="Q21">
+        <v>2.7814056539090899</v>
+      </c>
+      <c r="R21" s="15">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="S21" s="15">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="W21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21">
+        <v>28</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z21">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC21">
+        <v>28</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE21">
+        <v>2.5823478260869601</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="9">
         <v>22</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="H22" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="17">
+        <v>2.78</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>2.78±0.11</v>
+      </c>
+      <c r="N22">
+        <v>2.7814056539090899</v>
+      </c>
+      <c r="O22">
+        <v>0.110467302362971</v>
+      </c>
+      <c r="P22">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="Q22">
+        <v>2.6828999143600001</v>
+      </c>
+      <c r="R22" s="15">
+        <v>2.7814056539090899</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0.110467302362971</v>
+      </c>
+      <c r="W22" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22">
+        <v>28</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC22">
+        <v>28</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE22">
+        <v>2.5086842105263201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="9">
         <v>24</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="H23" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="17">
+        <v>2.61</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.13</v>
+      </c>
+      <c r="N23">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="O23">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="P23">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="Q23">
+        <v>2.5744362211</v>
+      </c>
+      <c r="R23" s="15">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="S23" s="15">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>28</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC23">
+        <v>28</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE23">
+        <v>2.5744362211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="9">
         <v>25</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="H24" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="17">
+        <v>2.68</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>2.68±0.14</v>
+      </c>
+      <c r="N24">
+        <v>2.6828999143600001</v>
+      </c>
+      <c r="O24">
+        <v>0.13958054736052</v>
+      </c>
+      <c r="P24">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="Q24">
+        <v>0.110467302362971</v>
+      </c>
+      <c r="R24" s="15">
+        <v>2.6828999143600001</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0.13958054736052</v>
+      </c>
+      <c r="W24" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24">
+        <v>28</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z24">
+        <v>2.52495</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC24">
+        <v>28</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE24">
+        <v>2.5769000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="9">
         <v>20</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="12"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="H25" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>2.5±0.1</v>
+      </c>
+      <c r="N25">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="O25">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="P25">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="Q25">
+        <v>0.13958054736052</v>
+      </c>
+      <c r="R25" s="15">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="S25" s="15">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="W25" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25">
+        <v>28</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC25">
+        <v>28</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE25">
+        <v>2.6201052631578898</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="9">
         <v>20</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13" t="s">
+      <c r="H26" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="17">
+        <v>2.57</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>2.57±0.13</v>
+      </c>
+      <c r="N26">
+        <v>2.5744362211</v>
+      </c>
+      <c r="O26">
+        <v>0.12501107327274799</v>
+      </c>
+      <c r="P26">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="Q26">
+        <v>0.12501107327274799</v>
+      </c>
+      <c r="R26" s="15">
+        <v>2.5744362211</v>
+      </c>
+      <c r="S26" s="15">
+        <v>0.12501107327274799</v>
+      </c>
+      <c r="W26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26">
+        <v>28</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26">
+        <v>2.6284375</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC26">
+        <v>28</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE26">
+        <v>2.6732499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="23">
         <v>-10.7</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="23">
         <v>54</v>
       </c>
       <c r="F27" s="9">
@@ -1568,76 +3206,382 @@
       <c r="G27" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="H27" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17">
+        <v>2.75</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>2.75±0.11</v>
+      </c>
+      <c r="N27">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.108184005044038</v>
+      </c>
+      <c r="P27">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="Q27">
+        <v>2.7998500000000002</v>
+      </c>
+      <c r="R27" s="15">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="S27" s="15">
+        <v>0.108184005044038</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="9">
         <v>20</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="14"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="H28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>2.8±0.16</v>
+      </c>
+      <c r="N28">
+        <v>2.7998500000000002</v>
+      </c>
+      <c r="O28">
+        <v>0.156576288787691</v>
+      </c>
+      <c r="P28">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="Q28">
+        <v>2.7643499999999999</v>
+      </c>
+      <c r="R28" s="15">
+        <v>2.7998500000000002</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0.156576288787691</v>
+      </c>
+      <c r="W28" t="s">
+        <v>211</v>
+      </c>
+      <c r="X28" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="9">
         <v>20</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="14"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="H29" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="17">
+        <v>2.66</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>2.66±0.08</v>
+      </c>
+      <c r="N29">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="O29">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="P29">
+        <v>2.52495</v>
+      </c>
+      <c r="Q29">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="R29" s="15">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="S29" s="15">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="W29" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29">
+        <v>0.10562310104179</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC29">
+        <v>20</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE29">
+        <v>0.11752037897183699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="9">
         <v>20</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="14"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="H30" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="17">
+        <v>2.76</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>2.76±0.12</v>
+      </c>
+      <c r="N30">
+        <v>2.7643499999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.117569811288084</v>
+      </c>
+      <c r="P30">
+        <v>0.108184005044038</v>
+      </c>
+      <c r="Q30">
+        <v>0.156576288787691</v>
+      </c>
+      <c r="R30" s="15">
+        <v>2.7643499999999999</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0.117569811288084</v>
+      </c>
+      <c r="W30" t="s">
+        <v>14</v>
+      </c>
+      <c r="X30">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC30">
+        <v>20</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE30">
+        <v>9.6553905496705103E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="9">
         <v>20</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="14"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="H31" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="17">
+        <v>2.52</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>2.52±0.1</v>
+      </c>
+      <c r="N31">
+        <v>2.52495</v>
+      </c>
+      <c r="O31">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="P31">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="Q31">
+        <v>0.117569811288084</v>
+      </c>
+      <c r="R31" s="15">
+        <v>2.52495</v>
+      </c>
+      <c r="S31" s="15">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="W31" t="s">
+        <v>32</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z31">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE31">
+        <v>0.150985825055165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B32" s="25"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="9">
         <v>20</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="14"/>
-      <c r="C33" s="10" t="s">
+      <c r="H32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="17">
+        <v>2.58</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>2.58±0.13</v>
+      </c>
+      <c r="N32">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="O32">
+        <v>0.127005553131805</v>
+      </c>
+      <c r="P32">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="Q32">
+        <v>0.127005553131805</v>
+      </c>
+      <c r="R32" s="15">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="S32" s="15">
+        <v>0.127005553131805</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>20</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC32">
+        <v>20</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE32">
+        <v>0.110467302362971</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B33" s="25"/>
+      <c r="C33" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="23">
         <v>-10.795999999999999</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="23">
         <v>16</v>
       </c>
       <c r="F33" s="9">
@@ -1646,78 +3590,420 @@
       <c r="G33" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="14"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="H33" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="17">
+        <v>2.79</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>2.79±0.11</v>
+      </c>
+      <c r="N33">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="P33">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="Q33">
+        <v>2.8631052631578902</v>
+      </c>
+      <c r="R33" s="15">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="S33" s="15">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="W33" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33">
+        <v>20</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33">
+        <v>0.108184005044038</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33">
+        <v>20</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE33">
+        <v>0.156576288787691</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B34" s="25"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="9">
         <v>19</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="14"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="17">
+        <v>2.86</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>2.86±0.14</v>
+      </c>
+      <c r="N34">
+        <v>2.8631052631578902</v>
+      </c>
+      <c r="O34">
+        <v>0.14377022359648201</v>
+      </c>
+      <c r="P34">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="Q34">
+        <v>2.7706</v>
+      </c>
+      <c r="R34" s="15">
+        <v>2.8631052631578902</v>
+      </c>
+      <c r="S34" s="15">
+        <v>0.14377022359648201</v>
+      </c>
+      <c r="W34" t="s">
+        <v>52</v>
+      </c>
+      <c r="X34">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC34">
+        <v>20</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE34">
+        <v>0.14377022359648201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="9">
         <v>20</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="14"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="H35" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="17">
+        <v>2.66</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>2.66±0.12</v>
+      </c>
+      <c r="N35">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="O35">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="P35">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="Q35">
+        <v>2.6201052631578898</v>
+      </c>
+      <c r="R35" s="15">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="W35" t="s">
+        <v>39</v>
+      </c>
+      <c r="X35">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z35">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC35">
+        <v>20</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE35">
+        <v>0.14136733598752799</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="9">
         <v>20</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="14"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="H36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="17">
+        <v>2.77</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>2.77±0.18</v>
+      </c>
+      <c r="N36">
+        <v>2.7706</v>
+      </c>
+      <c r="O36">
+        <v>0.175544686168808</v>
+      </c>
+      <c r="P36">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="Q36">
+        <v>0.14377022359648201</v>
+      </c>
+      <c r="R36" s="15">
+        <v>2.7706</v>
+      </c>
+      <c r="S36" s="15">
+        <v>0.175544686168808</v>
+      </c>
+      <c r="W36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36">
+        <v>24</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC36">
+        <v>24</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE36">
+        <v>0.11252530709508</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B37" s="25"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="9">
         <v>16</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="15"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="H37" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="17">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>2.53±0.16</v>
+      </c>
+      <c r="N37">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="O37">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="P37">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="Q37">
+        <v>0.175544686168808</v>
+      </c>
+      <c r="R37" s="15">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="W37" t="s">
+        <v>14</v>
+      </c>
+      <c r="X37">
+        <v>24</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z37">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC37">
+        <v>24</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE37">
+        <v>0.128136584119147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B38" s="26"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="9">
         <v>19</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13" t="s">
+      <c r="H38" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="17">
+        <v>2.62</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>2.62±0.17</v>
+      </c>
+      <c r="N38">
+        <v>2.6201052631578898</v>
+      </c>
+      <c r="O38">
+        <v>0.17050835585156701</v>
+      </c>
+      <c r="P38">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="Q38">
+        <v>0.17050835585156701</v>
+      </c>
+      <c r="R38" s="15">
+        <v>2.6201052631578898</v>
+      </c>
+      <c r="S38" s="15">
+        <v>0.17050835585156701</v>
+      </c>
+      <c r="W38" t="s">
+        <v>32</v>
+      </c>
+      <c r="X38">
+        <v>24</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z38">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC38">
+        <v>24</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE38">
+        <v>0.15157779709254399</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="23">
         <v>-22.611000000000001</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="23">
         <v>11</v>
       </c>
       <c r="F39" s="9">
@@ -1726,68 +4012,410 @@
       <c r="G39" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="14"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="H39" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="17">
+        <v>3.05</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>3.05±0.14</v>
+      </c>
+      <c r="N39">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="P39">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="Q39">
+        <v>2.9157500000000001</v>
+      </c>
+      <c r="R39" s="15">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="S39" s="15">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>24</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z39">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC39">
+        <v>24</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE39">
+        <v>0.13958054736052</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="9">
         <v>20</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="14"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="H40" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="17">
+        <v>2.92</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>2.92±0.14</v>
+      </c>
+      <c r="N40">
+        <v>2.9157500000000001</v>
+      </c>
+      <c r="O40">
+        <v>0.14136733598752799</v>
+      </c>
+      <c r="P40">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="Q40">
+        <v>2.7989000000000002</v>
+      </c>
+      <c r="R40" s="15">
+        <v>2.9157500000000001</v>
+      </c>
+      <c r="S40" s="15">
+        <v>0.14136733598752799</v>
+      </c>
+      <c r="W40" t="s">
+        <v>46</v>
+      </c>
+      <c r="X40">
+        <v>24</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z40">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC40">
+        <v>24</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE40">
+        <v>0.117569811288084</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B41" s="25"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="9">
         <v>20</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="14"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="H41" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="17">
+        <v>2.74</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>2.74±0.11</v>
+      </c>
+      <c r="N41">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="O41">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="P41">
+        <v>2.6284375</v>
+      </c>
+      <c r="Q41">
+        <v>2.6732499999999999</v>
+      </c>
+      <c r="R41" s="15">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="S41" s="15">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="W41" t="s">
+        <v>52</v>
+      </c>
+      <c r="X41">
+        <v>24</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC41">
+        <v>24</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE41">
+        <v>0.175544686168808</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="9">
         <v>20</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="14"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="H42" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="17">
+        <v>2.8</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>2.8±0.1</v>
+      </c>
+      <c r="N42">
+        <v>2.7989000000000002</v>
+      </c>
+      <c r="O42">
+        <v>0.104269337471963</v>
+      </c>
+      <c r="P42">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="Q42">
+        <v>0.14136733598752799</v>
+      </c>
+      <c r="R42" s="15">
+        <v>2.7989000000000002</v>
+      </c>
+      <c r="S42" s="15">
+        <v>0.104269337471963</v>
+      </c>
+      <c r="W42" t="s">
+        <v>39</v>
+      </c>
+      <c r="X42">
+        <v>24</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC42">
+        <v>24</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE42">
+        <v>0.104269337471963</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="9">
         <v>16</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="15"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="H43" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="17">
+        <v>2.63</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0.11</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>2.63±0.11</v>
+      </c>
+      <c r="N43">
+        <v>2.6284375</v>
+      </c>
+      <c r="O43">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="P43">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="Q43">
+        <v>0.104269337471963</v>
+      </c>
+      <c r="R43" s="15">
+        <v>2.6284375</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="W43" t="s">
+        <v>20</v>
+      </c>
+      <c r="X43">
+        <v>28</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC43">
+        <v>28</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE43">
+        <v>0.14913394721030601</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="9">
         <v>16</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="17">
+        <v>2.67</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>2.67±0.13</v>
+      </c>
+      <c r="N44">
+        <v>2.6732499999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.13212443629649501</v>
+      </c>
+      <c r="P44">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="Q44">
+        <v>0.13212443629649501</v>
+      </c>
+      <c r="R44" s="15">
+        <v>2.6732499999999999</v>
+      </c>
+      <c r="S44" s="15">
+        <v>0.13212443629649501</v>
+      </c>
+      <c r="W44" t="s">
+        <v>14</v>
+      </c>
+      <c r="X44">
+        <v>28</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC44">
+        <v>28</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE44">
+        <v>0.13455536498058801</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E45">
         <f>SUM(E3:E44)</f>
         <v>240</v>
@@ -1796,9 +4424,141 @@
         <f>SUM(F3:F44)</f>
         <v>870</v>
       </c>
+      <c r="K45" s="18"/>
+      <c r="W45" t="s">
+        <v>32</v>
+      </c>
+      <c r="X45">
+        <v>28</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z45">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC45">
+        <v>28</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE45">
+        <v>0.10870962986659</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>28</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z46">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC46">
+        <v>28</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE46">
+        <v>0.12501107327274799</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W47" t="s">
+        <v>46</v>
+      </c>
+      <c r="X47">
+        <v>28</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z47">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC47">
+        <v>28</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE47">
+        <v>0.127005553131805</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="W48" t="s">
+        <v>52</v>
+      </c>
+      <c r="X48">
+        <v>28</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z48">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC48">
+        <v>28</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE48">
+        <v>0.17050835585156701</v>
+      </c>
+    </row>
+    <row r="49" spans="23:31" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
+        <v>39</v>
+      </c>
+      <c r="X49">
+        <v>28</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z49">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC49">
+        <v>28</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE49">
+        <v>0.13212443629649501</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
@@ -1806,24 +4566,21 @@
     <mergeCell ref="E39:E44"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="E33:E38"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
     <mergeCell ref="C33:C38"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:B26"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C26"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="E15:E20"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:B26"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1832,15 +4589,288 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-2.8639999999999999</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4">
+        <v>2.9239117647058799</v>
+      </c>
+      <c r="K4">
+        <v>0.196231782219245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-3.028</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J5">
+        <v>2.9721060000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.18150142677799799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-8.7420000000000009</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6">
+        <v>2.9521851063829798</v>
+      </c>
+      <c r="K6">
+        <v>0.17732182113778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-9.2230000000000008</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7">
+        <v>3.0206266666666699</v>
+      </c>
+      <c r="K7">
+        <v>0.178209056753833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-10.7</v>
+      </c>
+      <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8">
+        <v>3.0870500000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.16956123483417601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-10.795999999999999</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9">
+        <v>3.0389352941176502</v>
+      </c>
+      <c r="K9">
+        <v>0.16698587118816499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-22.611000000000001</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10">
+        <v>3.4996</v>
+      </c>
+      <c r="K10">
+        <v>9.8969480144133398E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>0.196231782219245</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>0.18150142677799799</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>0.17732182113778</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>0.178209056753833</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>0.16956123483417601</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>0.16698587118816499</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31">
+        <v>9.8969480144133398E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +4887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +4904,7 @@
         <v>3.3014999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1891,7 +4921,7 @@
         <v>3.0202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1908,7 +4938,7 @@
         <v>3.0207999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +4955,7 @@
         <v>2.7909999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +4972,7 @@
         <v>2.7204999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1959,7 +4989,7 @@
         <v>3.0057</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1976,7 +5006,7 @@
         <v>3.0716999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1993,7 +5023,7 @@
         <v>3.2726999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +5040,7 @@
         <v>2.8353000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2027,7 +5057,7 @@
         <v>2.8733</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2044,7 +5074,7 @@
         <v>2.9569000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2061,7 +5091,7 @@
         <v>3.1086999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +5108,7 @@
         <v>3.1029</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2095,7 +5125,7 @@
         <v>3.0714000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +5142,7 @@
         <v>3.1560000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -2129,7 +5159,7 @@
         <v>2.9780000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2146,7 +5176,7 @@
         <v>3.0539000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2163,7 +5193,7 @@
         <v>3.1198000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2180,7 +5210,7 @@
         <v>3.1236000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2197,7 +5227,7 @@
         <v>3.1467000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2214,7 +5244,7 @@
         <v>3.6804000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2231,7 +5261,7 @@
         <v>3.3734999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2248,7 +5278,7 @@
         <v>3.5691000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2265,7 +5295,7 @@
         <v>3.5032000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2282,7 +5312,7 @@
         <v>3.3776999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -2299,7 +5329,7 @@
         <v>3.2509999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -2316,7 +5346,7 @@
         <v>2.7652000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -2333,7 +5363,7 @@
         <v>3.2155999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -2350,7 +5380,7 @@
         <v>3.0478999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -2367,7 +5397,7 @@
         <v>3.1472000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -2384,7 +5414,7 @@
         <v>3.0363000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
@@ -2401,7 +5431,7 @@
         <v>3.0177</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
@@ -2418,7 +5448,7 @@
         <v>3.1688000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -2435,7 +5465,7 @@
         <v>3.1377999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -2457,19 +5487,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F127"/>
   <sheetViews>
@@ -2477,12 +5507,12 @@
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.1328125" style="2"/>
+    <col min="1" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2502,7 +5532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -2520,7 +5550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +5568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
@@ -2556,7 +5586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
@@ -2574,7 +5604,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
@@ -2592,7 +5622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>72</v>
       </c>
@@ -2610,7 +5640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
@@ -2628,7 +5658,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
@@ -2646,7 +5676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
@@ -2664,7 +5694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
@@ -2682,7 +5712,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>77</v>
       </c>
@@ -2700,7 +5730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>78</v>
       </c>
@@ -2718,7 +5748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
@@ -2736,7 +5766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -2754,7 +5784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -2772,7 +5802,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
@@ -2790,7 +5820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
@@ -2808,7 +5838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -2826,7 +5856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
@@ -2846,7 +5876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>87</v>
       </c>
@@ -2866,7 +5896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>88</v>
       </c>
@@ -2886,7 +5916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
@@ -2906,7 +5936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
@@ -2926,7 +5956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
@@ -2946,7 +5976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>92</v>
       </c>
@@ -2966,7 +5996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -2986,7 +6016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
@@ -3006,7 +6036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>95</v>
       </c>
@@ -3026,7 +6056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
@@ -3046,7 +6076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -3066,7 +6096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>98</v>
       </c>
@@ -3086,7 +6116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>99</v>
       </c>
@@ -3106,7 +6136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>100</v>
       </c>
@@ -3126,7 +6156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>101</v>
       </c>
@@ -3146,7 +6176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>102</v>
       </c>
@@ -3166,7 +6196,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>103</v>
       </c>
@@ -3186,7 +6216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>104</v>
       </c>
@@ -3204,7 +6234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>105</v>
       </c>
@@ -3222,7 +6252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>106</v>
       </c>
@@ -3240,7 +6270,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -3258,7 +6288,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>108</v>
       </c>
@@ -3276,7 +6306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>109</v>
       </c>
@@ -3294,7 +6324,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>110</v>
       </c>
@@ -3312,7 +6342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -3330,7 +6360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>112</v>
       </c>
@@ -3348,7 +6378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>113</v>
       </c>
@@ -3366,7 +6396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>114</v>
       </c>
@@ -3384,7 +6414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>115</v>
       </c>
@@ -3402,7 +6432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>116</v>
       </c>
@@ -3420,7 +6450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>117</v>
       </c>
@@ -3438,7 +6468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -3456,7 +6486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>119</v>
       </c>
@@ -3474,7 +6504,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
@@ -3492,7 +6522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>121</v>
       </c>
@@ -3510,7 +6540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>122</v>
       </c>
@@ -3528,7 +6558,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>123</v>
       </c>
@@ -3546,7 +6576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>124</v>
       </c>
@@ -3564,7 +6594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>125</v>
       </c>
@@ -3582,7 +6612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>126</v>
       </c>
@@ -3600,7 +6630,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>127</v>
       </c>
@@ -3618,7 +6648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>128</v>
       </c>
@@ -3636,7 +6666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
@@ -3654,7 +6684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3672,7 +6702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
@@ -3690,7 +6720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>132</v>
       </c>
@@ -3708,7 +6738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>133</v>
       </c>
@@ -3726,7 +6756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>134</v>
       </c>
@@ -3744,7 +6774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>135</v>
       </c>
@@ -3762,7 +6792,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>136</v>
       </c>
@@ -3780,7 +6810,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>137</v>
       </c>
@@ -3798,7 +6828,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>138</v>
       </c>
@@ -3816,7 +6846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>139</v>
       </c>
@@ -3834,7 +6864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>140</v>
       </c>
@@ -3854,7 +6884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>141</v>
       </c>
@@ -3874,7 +6904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>142</v>
       </c>
@@ -3894,7 +6924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>144</v>
       </c>
@@ -3914,7 +6944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>145</v>
       </c>
@@ -3934,7 +6964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>146</v>
       </c>
@@ -3954,7 +6984,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>147</v>
       </c>
@@ -3974,7 +7004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>148</v>
       </c>
@@ -3994,7 +7024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>149</v>
       </c>
@@ -4014,7 +7044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>150</v>
       </c>
@@ -4034,7 +7064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>151</v>
       </c>
@@ -4054,7 +7084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>152</v>
       </c>
@@ -4074,7 +7104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>153</v>
       </c>
@@ -4094,7 +7124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>154</v>
       </c>
@@ -4114,7 +7144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>155</v>
       </c>
@@ -4134,7 +7164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>156</v>
       </c>
@@ -4154,7 +7184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>157</v>
       </c>
@@ -4174,7 +7204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>158</v>
       </c>
@@ -4194,7 +7224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>159</v>
       </c>
@@ -4212,7 +7242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>160</v>
       </c>
@@ -4230,7 +7260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>161</v>
       </c>
@@ -4248,7 +7278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>162</v>
       </c>
@@ -4266,7 +7296,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>163</v>
       </c>
@@ -4284,7 +7314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>164</v>
       </c>
@@ -4302,7 +7332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>165</v>
       </c>
@@ -4320,7 +7350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>166</v>
       </c>
@@ -4338,7 +7368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>167</v>
       </c>
@@ -4356,7 +7386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>168</v>
       </c>
@@ -4374,7 +7404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>169</v>
       </c>
@@ -4392,7 +7422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>170</v>
       </c>
@@ -4410,7 +7440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>171</v>
       </c>
@@ -4428,7 +7458,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>172</v>
       </c>
@@ -4446,7 +7476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>173</v>
       </c>
@@ -4464,7 +7494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>174</v>
       </c>
@@ -4482,7 +7512,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>175</v>
       </c>
@@ -4500,7 +7530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>176</v>
       </c>
@@ -4518,7 +7548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>177</v>
       </c>
@@ -4536,7 +7566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>178</v>
       </c>
@@ -4556,7 +7586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>179</v>
       </c>
@@ -4576,7 +7606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>180</v>
       </c>
@@ -4594,7 +7624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>181</v>
       </c>
@@ -4612,7 +7642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>182</v>
       </c>
@@ -4632,7 +7662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>183</v>
       </c>
@@ -4650,7 +7680,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>184</v>
       </c>
@@ -4670,7 +7700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>185</v>
       </c>
@@ -4690,7 +7720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>186</v>
       </c>
@@ -4708,7 +7738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>187</v>
       </c>
@@ -4728,7 +7758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>188</v>
       </c>
@@ -4748,7 +7778,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>189</v>
       </c>
@@ -4768,7 +7798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -4786,7 +7816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>191</v>
       </c>
@@ -4804,7 +7834,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>192</v>
       </c>
@@ -4824,7 +7854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>193</v>
       </c>
@@ -4844,7 +7874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>194</v>
       </c>

--- a/Summary wing excel files/Wing descriptive data.xlsx
+++ b/Summary wing excel files/Wing descriptive data.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Lab Descriptive table" sheetId="5" r:id="rId2"/>
-    <sheet name="Field descriptive table" sheetId="6" r:id="rId3"/>
-    <sheet name="Field repeat ID" sheetId="3" r:id="rId4"/>
-    <sheet name="Lab reared groups #" sheetId="2" r:id="rId5"/>
-    <sheet name="Lab reared repeat ID" sheetId="4" r:id="rId6"/>
+    <sheet name="Sample size descriptive table" sheetId="7" r:id="rId2"/>
+    <sheet name="Lab Descriptive table" sheetId="5" r:id="rId3"/>
+    <sheet name="Field descriptive table" sheetId="6" r:id="rId4"/>
+    <sheet name="Field repeat ID" sheetId="3" r:id="rId5"/>
+    <sheet name="Lab reared groups #" sheetId="2" r:id="rId6"/>
+    <sheet name="Lab reared repeat ID" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="281">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -650,9 +651,6 @@
   </si>
   <si>
     <t>Average Wing length (mm)</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Average wing length</t>
@@ -898,6 +896,214 @@
       </rPr>
       <t>±0.1</t>
     </r>
+  </si>
+  <si>
+    <t>13CS</t>
+  </si>
+  <si>
+    <r>
+      <t>3.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.279</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.1</t>
+    </r>
+  </si>
+  <si>
+    <t>18CS</t>
+  </si>
+  <si>
+    <r>
+      <t>2.70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.11</t>
+    </r>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Lab Average Wing length (mm)</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1043,11 +1249,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1070,15 +1302,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1092,8 +1318,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,9 +1333,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,85 +1736,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE49"/>
+  <dimension ref="B1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="17"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="29"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="N2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="Q2" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="23">
+      <c r="C3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21">
         <v>-2.8639999999999999</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>17</v>
       </c>
       <c r="F3" s="9">
@@ -1584,358 +1826,358 @@
       <c r="G3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="17">
+      <c r="J3" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="15">
         <v>2.71</v>
       </c>
-      <c r="L3" s="17">
+      <c r="N3" s="15">
         <v>0.11</v>
       </c>
-      <c r="M3" t="str">
-        <f>K3&amp;$M$2&amp;L3</f>
+      <c r="O3" t="str">
+        <f>M3&amp;$O$2&amp;N3</f>
         <v>2.71±0.11</v>
-      </c>
-      <c r="N3">
-        <v>2.7148500000000002</v>
-      </c>
-      <c r="O3">
-        <v>0.10562310104179</v>
       </c>
       <c r="P3">
         <v>2.7148500000000002</v>
       </c>
       <c r="Q3">
+        <v>0.10562310104179</v>
+      </c>
+      <c r="R3">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="S3">
         <v>2.7927499999999998</v>
       </c>
-      <c r="R3" s="15">
+      <c r="T3" s="13">
         <v>2.7148500000000002</v>
       </c>
-      <c r="S3" s="15">
+      <c r="U3" s="13">
         <v>0.10562310104179</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="9">
         <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="17">
+      <c r="J4" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="15">
         <v>2.79</v>
       </c>
-      <c r="L4" s="17">
+      <c r="N4" s="15">
         <v>0.12</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M44" si="0">K4&amp;$M$2&amp;L4</f>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O44" si="0">M4&amp;$O$2&amp;N4</f>
         <v>2.79±0.12</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>2.7927499999999998</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.11752037897183699</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.6377000000000002</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>2.6454499999999999</v>
       </c>
-      <c r="R4" s="15">
+      <c r="T4" s="13">
         <v>2.7927499999999998</v>
       </c>
-      <c r="S4" s="15">
+      <c r="U4" s="13">
         <v>0.11752037897183699</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="9">
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="17">
+      <c r="J5" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15">
         <v>2.64</v>
       </c>
-      <c r="L5" s="17">
+      <c r="N5" s="15">
         <v>0.13</v>
       </c>
-      <c r="M5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
         <v>2.64±0.13</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>2.6377000000000002</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.13091584279504501</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2.4538500000000001</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>2.5722499999999999</v>
       </c>
-      <c r="R5" s="15">
+      <c r="T5" s="13">
         <v>2.6377000000000002</v>
       </c>
-      <c r="S5" s="15">
+      <c r="U5" s="13">
         <v>0.13091584279504501</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z5" t="s">
         <v>211</v>
       </c>
-      <c r="X5" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="AB5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="9">
         <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="17">
+      <c r="J6" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15">
         <v>2.65</v>
       </c>
-      <c r="L6" s="17">
+      <c r="N6" s="15">
         <v>0.11</v>
       </c>
-      <c r="M6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>2.65±0.11</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>2.6454499999999999</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.11252530709508</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.10562310104179</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.11752037897183699</v>
       </c>
-      <c r="R6" s="15">
+      <c r="T6" s="13">
         <v>2.6454499999999999</v>
       </c>
-      <c r="S6" s="15">
+      <c r="U6" s="13">
         <v>0.11252530709508</v>
       </c>
-      <c r="W6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X6">
-        <v>20</v>
-      </c>
       <c r="Y6" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6">
         <v>2.7148500000000002</v>
       </c>
-      <c r="AB6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC6">
-        <v>20</v>
-      </c>
       <c r="AD6" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="AE6">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6">
         <v>2.7927499999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="9">
         <v>20</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="17">
+      <c r="J7" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L7" s="17">
+      <c r="N7" s="15">
         <v>0.12</v>
       </c>
-      <c r="M7" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="0"/>
         <v>2.45±0.12</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>2.4538500000000001</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.117972019430122</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.13091584279504501</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.11252530709508</v>
       </c>
-      <c r="R7" s="15">
+      <c r="T7" s="13">
         <v>2.4538500000000001</v>
       </c>
-      <c r="S7" s="15">
+      <c r="U7" s="13">
         <v>0.117972019430122</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>14</v>
       </c>
-      <c r="X7">
-        <v>20</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>68</v>
-      </c>
       <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7">
         <v>2.7518400000000001</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>14</v>
       </c>
-      <c r="AC7">
-        <v>20</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>64</v>
-      </c>
       <c r="AE7">
+        <v>20</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7">
         <v>2.7706400000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="9">
         <v>20</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="17">
+      <c r="J8" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15">
         <v>2.57</v>
       </c>
-      <c r="L8" s="17">
+      <c r="N8" s="15">
         <v>0.15</v>
       </c>
-      <c r="M8" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
         <v>2.57±0.15</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>2.5722499999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.14913394721030601</v>
-      </c>
-      <c r="P8">
-        <v>0.117972019430122</v>
       </c>
       <c r="Q8">
         <v>0.14913394721030601</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="S8">
+        <v>0.14913394721030601</v>
+      </c>
+      <c r="T8" s="13">
         <v>2.5722499999999999</v>
       </c>
-      <c r="S8" s="15">
+      <c r="U8" s="13">
         <v>0.14913394721030601</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>32</v>
       </c>
-      <c r="X8">
-        <v>20</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>68</v>
-      </c>
       <c r="Z8">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8">
         <v>2.7472727272727302</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>32</v>
       </c>
-      <c r="AC8">
-        <v>20</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>64</v>
-      </c>
       <c r="AE8">
+        <v>20</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG8">
         <v>2.8869130434782599</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="21">
         <v>-3.028</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>50</v>
       </c>
       <c r="F9" s="9">
@@ -1944,418 +2186,418 @@
       <c r="G9" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="17">
+      <c r="J9" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15">
         <v>2.75</v>
       </c>
-      <c r="L9" s="17">
+      <c r="N9" s="15">
         <v>0.09</v>
       </c>
-      <c r="M9" t="str">
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v>2.75±0.09</v>
       </c>
-      <c r="N9">
-        <v>2.7518400000000001</v>
-      </c>
-      <c r="O9">
-        <v>9.2692448451856105E-2</v>
-      </c>
       <c r="P9">
         <v>2.7518400000000001</v>
       </c>
       <c r="Q9">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="S9">
         <v>2.7706400000000002</v>
       </c>
-      <c r="R9" s="15">
+      <c r="T9" s="13">
         <v>2.7518400000000001</v>
       </c>
-      <c r="S9" s="15">
+      <c r="U9" s="13">
         <v>9.2692448451856105E-2</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>26</v>
       </c>
-      <c r="X9">
-        <v>20</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>68</v>
-      </c>
       <c r="Z9">
+        <v>20</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9">
         <v>2.7730103111200002</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>26</v>
       </c>
-      <c r="AC9">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>64</v>
-      </c>
       <c r="AE9">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG9">
         <v>2.7814056539090899</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="9">
         <v>25</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="17">
+      <c r="J10" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15">
         <v>2.77</v>
       </c>
-      <c r="L10" s="17">
+      <c r="N10" s="15">
         <v>0.1</v>
       </c>
-      <c r="M10" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
         <v>2.77±0.1</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>2.7706400000000002</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>9.6553905496705103E-2</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>2.6085909090909101</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>2.6054347826086999</v>
       </c>
-      <c r="R10" s="15">
+      <c r="T10" s="13">
         <v>2.7706400000000002</v>
       </c>
-      <c r="S10" s="15">
+      <c r="U10" s="13">
         <v>9.6553905496705103E-2</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>46</v>
       </c>
-      <c r="X10">
-        <v>20</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>68</v>
-      </c>
       <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10">
         <v>2.7530999999999999</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>46</v>
       </c>
-      <c r="AC10">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>64</v>
-      </c>
       <c r="AE10">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG10">
         <v>2.7998500000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="9">
         <v>25</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="17">
+      <c r="J11" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15">
         <v>2.61</v>
       </c>
-      <c r="L11" s="17">
+      <c r="N11" s="15">
         <v>0.13</v>
       </c>
-      <c r="M11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
         <v>2.61±0.13</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>2.6085909090909101</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.13080980707770201</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>2.4672523809523801</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>2.5823478260869601</v>
       </c>
-      <c r="R11" s="15">
+      <c r="T11" s="13">
         <v>2.6085909090909101</v>
       </c>
-      <c r="S11" s="15">
+      <c r="U11" s="13">
         <v>0.13080980707770201</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>52</v>
       </c>
-      <c r="X11">
-        <v>20</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>68</v>
-      </c>
       <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11">
         <v>2.7880500000000001</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>52</v>
       </c>
-      <c r="AC11">
-        <v>20</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>64</v>
-      </c>
       <c r="AE11">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG11">
         <v>2.8631052631578902</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="9">
         <v>23</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="17">
+      <c r="J12" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15">
         <v>2.61</v>
       </c>
-      <c r="L12" s="17">
+      <c r="N12" s="15">
         <v>0.13</v>
       </c>
-      <c r="M12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="0"/>
         <v>2.61±0.13</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>2.6054347826086999</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.128136584119147</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>9.2692448451856105E-2</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>9.6553905496705103E-2</v>
       </c>
-      <c r="R12" s="15">
+      <c r="T12" s="13">
         <v>2.6054347826086999</v>
       </c>
-      <c r="S12" s="15">
+      <c r="U12" s="13">
         <v>0.128136584119147</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>39</v>
       </c>
-      <c r="X12">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>68</v>
-      </c>
       <c r="Z12">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12">
         <v>3.0512999999999999</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>39</v>
       </c>
-      <c r="AC12">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>64</v>
-      </c>
       <c r="AE12">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG12">
         <v>2.9157500000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="9">
         <v>21</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="17">
+      <c r="J13" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15">
         <v>2.4700000000000002</v>
       </c>
-      <c r="L13" s="17">
+      <c r="N13" s="15">
         <v>0.1</v>
       </c>
-      <c r="M13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="0"/>
         <v>2.47±0.1</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>2.4672523809523801</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.10088437747762299</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.13080980707770201</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.128136584119147</v>
       </c>
-      <c r="R13" s="15">
+      <c r="T13" s="13">
         <v>2.4672523809523801</v>
       </c>
-      <c r="S13" s="15">
+      <c r="U13" s="13">
         <v>0.10088437747762299</v>
       </c>
-      <c r="W13" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13">
+      <c r="Y13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13">
         <v>24</v>
       </c>
-      <c r="Y13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z13">
+      <c r="AA13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13">
         <v>2.6377000000000002</v>
       </c>
-      <c r="AB13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC13">
+      <c r="AD13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE13">
         <v>24</v>
       </c>
-      <c r="AD13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE13">
+      <c r="AF13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG13">
         <v>2.6454499999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="9">
         <v>23</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="17">
+      <c r="J14" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15">
         <v>2.58</v>
       </c>
-      <c r="L14" s="17">
+      <c r="N14" s="15">
         <v>0.13</v>
       </c>
-      <c r="M14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="0"/>
         <v>2.58±0.13</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>2.5823478260869601</v>
-      </c>
-      <c r="O14">
-        <v>0.13455536498058801</v>
-      </c>
-      <c r="P14">
-        <v>0.10088437747762299</v>
       </c>
       <c r="Q14">
         <v>0.13455536498058801</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="S14">
+        <v>0.13455536498058801</v>
+      </c>
+      <c r="T14" s="13">
         <v>2.5823478260869601</v>
       </c>
-      <c r="S14" s="15">
+      <c r="U14" s="13">
         <v>0.13455536498058801</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>14</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>24</v>
       </c>
-      <c r="Y14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z14">
+      <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14">
         <v>2.6085909090909101</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AD14" t="s">
         <v>14</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <v>24</v>
       </c>
-      <c r="AD14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE14">
+      <c r="AF14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG14">
         <v>2.6054347826086999</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>-8.7420000000000009</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>47</v>
       </c>
       <c r="F15" s="9">
@@ -2364,418 +2606,418 @@
       <c r="G15" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="17">
+      <c r="J15" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15">
         <v>2.75</v>
       </c>
-      <c r="L15" s="17">
+      <c r="N15" s="15">
         <v>0.16</v>
       </c>
-      <c r="M15" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="0"/>
         <v>2.75±0.16</v>
       </c>
-      <c r="N15">
-        <v>2.7472727272727302</v>
-      </c>
-      <c r="O15">
-        <v>0.161770908508999</v>
-      </c>
       <c r="P15">
         <v>2.7472727272727302</v>
       </c>
       <c r="Q15">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="R15">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="S15">
         <v>2.8869130434782599</v>
       </c>
-      <c r="R15" s="15">
+      <c r="T15" s="13">
         <v>2.7472727272727302</v>
       </c>
-      <c r="S15" s="15">
+      <c r="U15" s="13">
         <v>0.161770908508999</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>32</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>24</v>
       </c>
-      <c r="Y15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z15">
+      <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15">
         <v>2.60595833333333</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AD15" t="s">
         <v>32</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <v>24</v>
       </c>
-      <c r="AD15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE15">
+      <c r="AF15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG15">
         <v>2.67814285714286</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="9">
         <v>23</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="17">
+      <c r="J16" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15">
         <v>2.89</v>
       </c>
-      <c r="L16" s="17">
+      <c r="N16" s="15">
         <v>0.15</v>
       </c>
-      <c r="M16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
         <v>2.89±0.15</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>2.8869130434782599</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.150985825055165</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>2.60595833333333</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>2.67814285714286</v>
       </c>
-      <c r="R16" s="15">
+      <c r="T16" s="13">
         <v>2.8869130434782599</v>
       </c>
-      <c r="S16" s="15">
+      <c r="U16" s="13">
         <v>0.150985825055165</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Y16" t="s">
         <v>26</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>24</v>
       </c>
-      <c r="Y16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z16">
+      <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16">
         <v>2.6138485365833302</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>26</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <v>24</v>
       </c>
-      <c r="AD16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE16">
+      <c r="AF16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG16">
         <v>2.6828999143600001</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="9">
         <v>24</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="17">
+      <c r="J17" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15">
         <v>2.61</v>
       </c>
-      <c r="L17" s="17">
+      <c r="N17" s="15">
         <v>0.08</v>
       </c>
-      <c r="M17" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
         <v>2.61±0.08</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>2.60595833333333</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>8.3678203055913405E-2</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>2.4047619047619002</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>2.5086842105263201</v>
       </c>
-      <c r="R17" s="15">
+      <c r="T17" s="13">
         <v>2.60595833333333</v>
       </c>
-      <c r="S17" s="15">
+      <c r="U17" s="13">
         <v>8.3678203055913405E-2</v>
       </c>
-      <c r="W17" t="s">
+      <c r="Y17" t="s">
         <v>46</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>24</v>
       </c>
-      <c r="Y17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z17">
+      <c r="AA17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB17">
         <v>2.6580499999999998</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>46</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <v>24</v>
       </c>
-      <c r="AD17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE17">
+      <c r="AF17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG17">
         <v>2.7643499999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="9">
         <v>21</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="17">
+      <c r="J18" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="15">
         <v>2.68</v>
       </c>
-      <c r="L18" s="17">
+      <c r="N18" s="15">
         <v>0.15</v>
       </c>
-      <c r="M18" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="0"/>
         <v>2.68±0.15</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>2.67814285714286</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>0.15157779709254399</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>0.161770908508999</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>0.150985825055165</v>
       </c>
-      <c r="R18" s="15">
+      <c r="T18" s="13">
         <v>2.67814285714286</v>
       </c>
-      <c r="S18" s="15">
+      <c r="U18" s="13">
         <v>0.15157779709254399</v>
       </c>
-      <c r="W18" t="s">
+      <c r="Y18" t="s">
         <v>52</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>24</v>
       </c>
-      <c r="Y18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z18">
+      <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18">
         <v>2.65510526315789</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AD18" t="s">
         <v>52</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <v>24</v>
       </c>
-      <c r="AD18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE18">
+      <c r="AF18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG18">
         <v>2.7706</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="9">
         <v>20</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="17">
+      <c r="J19" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15">
         <v>2.4</v>
       </c>
-      <c r="L19" s="17">
+      <c r="N19" s="15">
         <v>0.13</v>
       </c>
-      <c r="M19" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
         <v>2.4±0.13</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>2.4047619047619002</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.13263819388166601</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>8.3678203055913405E-2</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.15157779709254399</v>
       </c>
-      <c r="R19" s="15">
+      <c r="T19" s="13">
         <v>2.4047619047619002</v>
       </c>
-      <c r="S19" s="15">
+      <c r="U19" s="13">
         <v>0.13263819388166601</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Y19" t="s">
         <v>39</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>24</v>
       </c>
-      <c r="Y19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z19">
+      <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19">
         <v>2.7376499999999999</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AD19" t="s">
         <v>39</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <v>24</v>
       </c>
-      <c r="AD19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE19">
+      <c r="AF19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG19">
         <v>2.7989000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="9">
         <v>20</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="17">
+      <c r="J20" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15">
         <v>2.5099999999999998</v>
       </c>
-      <c r="L20" s="17">
+      <c r="N20" s="15">
         <v>0.11</v>
       </c>
-      <c r="M20" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
         <v>2.51±0.11</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>2.5086842105263201</v>
-      </c>
-      <c r="O20">
-        <v>0.10870962986659</v>
-      </c>
-      <c r="P20">
-        <v>0.13263819388166601</v>
       </c>
       <c r="Q20">
         <v>0.10870962986659</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="S20">
+        <v>0.10870962986659</v>
+      </c>
+      <c r="T20" s="13">
         <v>2.5086842105263201</v>
       </c>
-      <c r="S20" s="15">
+      <c r="U20" s="13">
         <v>0.10870962986659</v>
       </c>
-      <c r="W20" t="s">
-        <v>20</v>
-      </c>
-      <c r="X20">
+      <c r="Y20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20">
         <v>28</v>
       </c>
-      <c r="Y20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z20">
+      <c r="AA20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20">
         <v>2.4538500000000001</v>
       </c>
-      <c r="AB20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC20">
+      <c r="AD20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE20">
         <v>28</v>
       </c>
-      <c r="AD20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE20">
+      <c r="AF20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG20">
         <v>2.5722499999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>-9.2230000000000008</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>45</v>
       </c>
       <c r="F21" s="9">
@@ -2784,420 +3026,420 @@
       <c r="G21" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="17">
+      <c r="J21" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15">
         <v>2.77</v>
       </c>
-      <c r="L21" s="17">
+      <c r="N21" s="15">
         <v>0.13</v>
       </c>
-      <c r="M21" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v>2.77±0.13</v>
       </c>
-      <c r="N21">
-        <v>2.7730103111200002</v>
-      </c>
-      <c r="O21">
-        <v>0.127101918509922</v>
-      </c>
       <c r="P21">
         <v>2.7730103111200002</v>
       </c>
       <c r="Q21">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="R21">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="S21">
         <v>2.7814056539090899</v>
       </c>
-      <c r="R21" s="15">
+      <c r="T21" s="13">
         <v>2.7730103111200002</v>
       </c>
-      <c r="S21" s="15">
+      <c r="U21" s="13">
         <v>0.127101918509922</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Y21" t="s">
         <v>14</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>28</v>
       </c>
-      <c r="Y21" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z21">
+      <c r="AA21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB21">
         <v>2.4672523809523801</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AD21" t="s">
         <v>14</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>28</v>
       </c>
-      <c r="AD21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE21">
+      <c r="AF21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG21">
         <v>2.5823478260869601</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="9">
         <v>22</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="17">
+      <c r="J22" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="15">
         <v>2.78</v>
       </c>
-      <c r="L22" s="17">
+      <c r="N22" s="15">
         <v>0.11</v>
       </c>
-      <c r="M22" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v>2.78±0.11</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>2.7814056539090899</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.110467302362971</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>2.6138485365833302</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>2.6828999143600001</v>
       </c>
-      <c r="R22" s="15">
+      <c r="T22" s="13">
         <v>2.7814056539090899</v>
       </c>
-      <c r="S22" s="15">
+      <c r="U22" s="13">
         <v>0.110467302362971</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Y22" t="s">
         <v>32</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>28</v>
       </c>
-      <c r="Y22" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z22">
+      <c r="AA22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB22">
         <v>2.4047619047619002</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AD22" t="s">
         <v>32</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>28</v>
       </c>
-      <c r="AD22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE22">
+      <c r="AF22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG22">
         <v>2.5086842105263201</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="9">
         <v>24</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="17">
+      <c r="J23" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15">
         <v>2.61</v>
       </c>
-      <c r="L23" s="17">
+      <c r="N23" s="15">
         <v>0.13</v>
       </c>
-      <c r="M23" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v>2.61±0.13</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>2.6138485365833302</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.12639469770859599</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>2.4982453436499998</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>2.5744362211</v>
       </c>
-      <c r="R23" s="15">
+      <c r="T23" s="13">
         <v>2.6138485365833302</v>
       </c>
-      <c r="S23" s="15">
+      <c r="U23" s="13">
         <v>0.12639469770859599</v>
       </c>
-      <c r="W23" t="s">
+      <c r="Y23" t="s">
         <v>26</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>28</v>
       </c>
-      <c r="Y23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z23">
+      <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23">
         <v>2.4982453436499998</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AD23" t="s">
         <v>26</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>28</v>
       </c>
-      <c r="AD23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE23">
+      <c r="AF23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG23">
         <v>2.5744362211</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="9">
         <v>25</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="17">
+      <c r="J24" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="15">
         <v>2.68</v>
       </c>
-      <c r="L24" s="17">
+      <c r="N24" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M24" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v>2.68±0.14</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>2.6828999143600001</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.13958054736052</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>0.127101918509922</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>0.110467302362971</v>
       </c>
-      <c r="R24" s="15">
+      <c r="T24" s="13">
         <v>2.6828999143600001</v>
       </c>
-      <c r="S24" s="15">
+      <c r="U24" s="13">
         <v>0.13958054736052</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Y24" t="s">
         <v>46</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>28</v>
       </c>
-      <c r="Y24" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z24">
+      <c r="AA24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24">
         <v>2.52495</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AD24" t="s">
         <v>46</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>28</v>
       </c>
-      <c r="AD24" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE24">
+      <c r="AF24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG24">
         <v>2.5769000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="9">
         <v>20</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="17">
+      <c r="J25" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="15">
         <v>2.5</v>
       </c>
-      <c r="L25" s="17">
+      <c r="N25" s="15">
         <v>0.1</v>
       </c>
-      <c r="M25" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
         <v>2.5±0.1</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>2.4982453436499998</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.103782340807972</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>0.12639469770859599</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0.13958054736052</v>
       </c>
-      <c r="R25" s="15">
+      <c r="T25" s="13">
         <v>2.4982453436499998</v>
       </c>
-      <c r="S25" s="15">
+      <c r="U25" s="13">
         <v>0.103782340807972</v>
       </c>
-      <c r="W25" t="s">
+      <c r="Y25" t="s">
         <v>52</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>28</v>
       </c>
-      <c r="Y25" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z25">
+      <c r="AA25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB25">
         <v>2.5301874999999998</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AD25" t="s">
         <v>52</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>28</v>
       </c>
-      <c r="AD25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE25">
+      <c r="AF25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG25">
         <v>2.6201052631578898</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="9">
         <v>20</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="17">
+      <c r="J26" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="15">
         <v>2.57</v>
       </c>
-      <c r="L26" s="17">
+      <c r="N26" s="15">
         <v>0.13</v>
       </c>
-      <c r="M26" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v>2.57±0.13</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>2.5744362211</v>
-      </c>
-      <c r="O26">
-        <v>0.12501107327274799</v>
-      </c>
-      <c r="P26">
-        <v>0.103782340807972</v>
       </c>
       <c r="Q26">
         <v>0.12501107327274799</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="S26">
+        <v>0.12501107327274799</v>
+      </c>
+      <c r="T26" s="13">
         <v>2.5744362211</v>
       </c>
-      <c r="S26" s="15">
+      <c r="U26" s="13">
         <v>0.12501107327274799</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Y26" t="s">
         <v>39</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>28</v>
       </c>
-      <c r="Y26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z26">
+      <c r="AA26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26">
         <v>2.6284375</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
         <v>39</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>28</v>
       </c>
-      <c r="AD26" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE26">
+      <c r="AF26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG26">
         <v>2.6732499999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="21">
         <v>-10.7</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <v>54</v>
       </c>
       <c r="F27" s="9">
@@ -3206,383 +3448,383 @@
       <c r="G27" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="17">
+      <c r="J27" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="15">
         <v>2.75</v>
       </c>
-      <c r="L27" s="17">
+      <c r="N27" s="15">
         <v>0.11</v>
       </c>
-      <c r="M27" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v>2.75±0.11</v>
       </c>
-      <c r="N27">
-        <v>2.7530999999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.108184005044038</v>
-      </c>
       <c r="P27">
         <v>2.7530999999999999</v>
       </c>
       <c r="Q27">
+        <v>0.108184005044038</v>
+      </c>
+      <c r="R27">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="S27">
         <v>2.7998500000000002</v>
       </c>
-      <c r="R27" s="15">
+      <c r="T27" s="13">
         <v>2.7530999999999999</v>
       </c>
-      <c r="S27" s="15">
+      <c r="U27" s="13">
         <v>0.108184005044038</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="9">
         <v>20</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="17">
+      <c r="J28" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="15">
         <v>2.8</v>
       </c>
-      <c r="L28" s="17">
+      <c r="N28" s="15">
         <v>0.16</v>
       </c>
-      <c r="M28" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v>2.8±0.16</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>2.7998500000000002</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>0.156576288787691</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>2.6580499999999998</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>2.7643499999999999</v>
       </c>
-      <c r="R28" s="15">
+      <c r="T28" s="13">
         <v>2.7998500000000002</v>
       </c>
-      <c r="S28" s="15">
+      <c r="U28" s="13">
         <v>0.156576288787691</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z28" t="s">
         <v>211</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AA28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB28" t="s">
         <v>212</v>
       </c>
-      <c r="Y28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="9">
         <v>20</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="17">
+      <c r="J29" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="15">
         <v>2.66</v>
       </c>
-      <c r="L29" s="17">
+      <c r="N29" s="15">
         <v>0.08</v>
       </c>
-      <c r="M29" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v>2.66±0.08</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>2.6580499999999998</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>7.8878637625685505E-2</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>2.52495</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>2.5769000000000002</v>
       </c>
-      <c r="R29" s="15">
+      <c r="T29" s="13">
         <v>2.6580499999999998</v>
       </c>
-      <c r="S29" s="15">
+      <c r="U29" s="13">
         <v>7.8878637625685505E-2</v>
       </c>
-      <c r="W29" t="s">
-        <v>20</v>
-      </c>
-      <c r="X29">
-        <v>20</v>
-      </c>
       <c r="Y29" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29">
         <v>0.10562310104179</v>
       </c>
-      <c r="AB29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC29">
-        <v>20</v>
-      </c>
       <c r="AD29" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="AE29">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG29">
         <v>0.11752037897183699</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="9">
         <v>20</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="17">
+      <c r="J30" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="15">
         <v>2.76</v>
       </c>
-      <c r="L30" s="17">
+      <c r="N30" s="15">
         <v>0.12</v>
       </c>
-      <c r="M30" t="str">
+      <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v>2.76±0.12</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>2.7643499999999999</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>0.117569811288084</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>0.108184005044038</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>0.156576288787691</v>
       </c>
-      <c r="R30" s="15">
+      <c r="T30" s="13">
         <v>2.7643499999999999</v>
       </c>
-      <c r="S30" s="15">
+      <c r="U30" s="13">
         <v>0.117569811288084</v>
       </c>
-      <c r="W30" t="s">
+      <c r="Y30" t="s">
         <v>14</v>
       </c>
-      <c r="X30">
-        <v>20</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>68</v>
-      </c>
       <c r="Z30">
+        <v>20</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB30">
         <v>9.2692448451856105E-2</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AD30" t="s">
         <v>14</v>
       </c>
-      <c r="AC30">
-        <v>20</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>64</v>
-      </c>
       <c r="AE30">
+        <v>20</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG30">
         <v>9.6553905496705103E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="9">
         <v>20</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="17">
+      <c r="J31" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="15">
         <v>2.52</v>
       </c>
-      <c r="L31" s="17">
+      <c r="N31" s="15">
         <v>0.1</v>
       </c>
-      <c r="M31" t="str">
+      <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v>2.52±0.1</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>2.52495</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>0.10129398329926401</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>7.8878637625685505E-2</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>0.117569811288084</v>
       </c>
-      <c r="R31" s="15">
+      <c r="T31" s="13">
         <v>2.52495</v>
       </c>
-      <c r="S31" s="15">
+      <c r="U31" s="13">
         <v>0.10129398329926401</v>
       </c>
-      <c r="W31" t="s">
+      <c r="Y31" t="s">
         <v>32</v>
       </c>
-      <c r="X31">
-        <v>20</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>68</v>
-      </c>
       <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB31">
         <v>0.161770908508999</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AD31" t="s">
         <v>32</v>
       </c>
-      <c r="AC31">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>64</v>
-      </c>
       <c r="AE31">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG31">
         <v>0.150985825055165</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="9">
         <v>20</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17">
+      <c r="J32" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="15">
         <v>2.58</v>
       </c>
-      <c r="L32" s="17">
+      <c r="N32" s="15">
         <v>0.13</v>
       </c>
-      <c r="M32" t="str">
+      <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v>2.58±0.13</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>2.5769000000000002</v>
-      </c>
-      <c r="O32">
-        <v>0.127005553131805</v>
-      </c>
-      <c r="P32">
-        <v>0.10129398329926401</v>
       </c>
       <c r="Q32">
         <v>0.127005553131805</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="S32">
+        <v>0.127005553131805</v>
+      </c>
+      <c r="T32" s="13">
         <v>2.5769000000000002</v>
       </c>
-      <c r="S32" s="15">
+      <c r="U32" s="13">
         <v>0.127005553131805</v>
       </c>
-      <c r="W32" t="s">
+      <c r="Y32" t="s">
         <v>26</v>
       </c>
-      <c r="X32">
-        <v>20</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>68</v>
-      </c>
       <c r="Z32">
+        <v>20</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB32">
         <v>0.127101918509922</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AD32" t="s">
         <v>26</v>
       </c>
-      <c r="AC32">
-        <v>20</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>64</v>
-      </c>
       <c r="AE32">
+        <v>20</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG32">
         <v>0.110467302362971</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="23" t="s">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="21">
         <v>-10.795999999999999</v>
       </c>
-      <c r="E33" s="23">
-        <v>16</v>
+      <c r="E33" s="21">
+        <v>17</v>
       </c>
       <c r="F33" s="9">
         <v>19</v>
@@ -3590,420 +3832,420 @@
       <c r="G33" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="17">
+      <c r="J33" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="15">
         <v>2.79</v>
       </c>
-      <c r="L33" s="17">
+      <c r="N33" s="15">
         <v>0.11</v>
       </c>
-      <c r="M33" t="str">
+      <c r="O33" t="str">
         <f t="shared" si="0"/>
         <v>2.79±0.11</v>
       </c>
-      <c r="N33">
-        <v>2.7880500000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.112950140374089</v>
-      </c>
       <c r="P33">
         <v>2.7880500000000001</v>
       </c>
       <c r="Q33">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="R33">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="S33">
         <v>2.8631052631578902</v>
       </c>
-      <c r="R33" s="15">
+      <c r="T33" s="13">
         <v>2.7880500000000001</v>
       </c>
-      <c r="S33" s="15">
+      <c r="U33" s="13">
         <v>0.112950140374089</v>
       </c>
-      <c r="W33" t="s">
+      <c r="Y33" t="s">
         <v>46</v>
       </c>
-      <c r="X33">
-        <v>20</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>68</v>
-      </c>
       <c r="Z33">
+        <v>20</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB33">
         <v>0.108184005044038</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AD33" t="s">
         <v>46</v>
       </c>
-      <c r="AC33">
-        <v>20</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>64</v>
-      </c>
       <c r="AE33">
+        <v>20</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG33">
         <v>0.156576288787691</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="9">
         <v>19</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="17">
+      <c r="J34" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="15">
         <v>2.86</v>
       </c>
-      <c r="L34" s="17">
+      <c r="N34" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M34" t="str">
+      <c r="O34" t="str">
         <f t="shared" si="0"/>
         <v>2.86±0.14</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>2.8631052631578902</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>0.14377022359648201</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>2.65510526315789</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>2.7706</v>
       </c>
-      <c r="R34" s="15">
+      <c r="T34" s="13">
         <v>2.8631052631578902</v>
       </c>
-      <c r="S34" s="15">
+      <c r="U34" s="13">
         <v>0.14377022359648201</v>
       </c>
-      <c r="W34" t="s">
+      <c r="Y34" t="s">
         <v>52</v>
       </c>
-      <c r="X34">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>68</v>
-      </c>
       <c r="Z34">
+        <v>20</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB34">
         <v>0.112950140374089</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AD34" t="s">
         <v>52</v>
       </c>
-      <c r="AC34">
-        <v>20</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>64</v>
-      </c>
       <c r="AE34">
+        <v>20</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG34">
         <v>0.14377022359648201</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="9">
         <v>20</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="17">
+      <c r="J35" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="15">
         <v>2.66</v>
       </c>
-      <c r="L35" s="17">
+      <c r="N35" s="15">
         <v>0.12</v>
       </c>
-      <c r="M35" t="str">
+      <c r="O35" t="str">
         <f t="shared" si="0"/>
         <v>2.66±0.12</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>2.65510526315789</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>0.123733986500091</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>2.5301874999999998</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>2.6201052631578898</v>
       </c>
-      <c r="R35" s="15">
+      <c r="T35" s="13">
         <v>2.65510526315789</v>
       </c>
-      <c r="S35" s="15">
+      <c r="U35" s="13">
         <v>0.123733986500091</v>
       </c>
-      <c r="W35" t="s">
+      <c r="Y35" t="s">
         <v>39</v>
       </c>
-      <c r="X35">
-        <v>20</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>68</v>
-      </c>
       <c r="Z35">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB35">
         <v>0.13547075815758</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AD35" t="s">
         <v>39</v>
       </c>
-      <c r="AC35">
-        <v>20</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>64</v>
-      </c>
       <c r="AE35">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG35">
         <v>0.14136733598752799</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="9">
         <v>20</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="17">
+      <c r="J36" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="15">
         <v>2.77</v>
       </c>
-      <c r="L36" s="17">
+      <c r="N36" s="15">
         <v>0.18</v>
       </c>
-      <c r="M36" t="str">
+      <c r="O36" t="str">
         <f t="shared" si="0"/>
         <v>2.77±0.18</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>2.7706</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>0.175544686168808</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>0.112950140374089</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>0.14377022359648201</v>
       </c>
-      <c r="R36" s="15">
+      <c r="T36" s="13">
         <v>2.7706</v>
       </c>
-      <c r="S36" s="15">
+      <c r="U36" s="13">
         <v>0.175544686168808</v>
       </c>
-      <c r="W36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X36">
+      <c r="Y36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36">
         <v>24</v>
       </c>
-      <c r="Y36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z36">
+      <c r="AA36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB36">
         <v>0.13091584279504501</v>
       </c>
-      <c r="AB36" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC36">
+      <c r="AD36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE36">
         <v>24</v>
       </c>
-      <c r="AD36" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE36">
+      <c r="AF36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG36">
         <v>0.11252530709508</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="9">
         <v>16</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="17">
+      <c r="J37" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="15">
         <v>2.5299999999999998</v>
       </c>
-      <c r="L37" s="17">
+      <c r="N37" s="15">
         <v>0.16</v>
       </c>
-      <c r="M37" t="str">
+      <c r="O37" t="str">
         <f t="shared" si="0"/>
         <v>2.53±0.16</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>2.5301874999999998</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>0.158339811270992</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>0.123733986500091</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>0.175544686168808</v>
       </c>
-      <c r="R37" s="15">
+      <c r="T37" s="13">
         <v>2.5301874999999998</v>
       </c>
-      <c r="S37" s="15">
+      <c r="U37" s="13">
         <v>0.158339811270992</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Y37" t="s">
         <v>14</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <v>24</v>
       </c>
-      <c r="Y37" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z37">
+      <c r="AA37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB37">
         <v>0.13080980707770201</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AD37" t="s">
         <v>14</v>
       </c>
-      <c r="AC37">
+      <c r="AE37">
         <v>24</v>
       </c>
-      <c r="AD37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE37">
+      <c r="AF37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG37">
         <v>0.128136584119147</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="9">
         <v>19</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="17">
+      <c r="J38" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="15">
         <v>2.62</v>
       </c>
-      <c r="L38" s="17">
+      <c r="N38" s="15">
         <v>0.17</v>
       </c>
-      <c r="M38" t="str">
+      <c r="O38" t="str">
         <f t="shared" si="0"/>
         <v>2.62±0.17</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>2.6201052631578898</v>
-      </c>
-      <c r="O38">
-        <v>0.17050835585156701</v>
-      </c>
-      <c r="P38">
-        <v>0.158339811270992</v>
       </c>
       <c r="Q38">
         <v>0.17050835585156701</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="S38">
+        <v>0.17050835585156701</v>
+      </c>
+      <c r="T38" s="13">
         <v>2.6201052631578898</v>
       </c>
-      <c r="S38" s="15">
+      <c r="U38" s="13">
         <v>0.17050835585156701</v>
       </c>
-      <c r="W38" t="s">
+      <c r="Y38" t="s">
         <v>32</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <v>24</v>
       </c>
-      <c r="Y38" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z38">
+      <c r="AA38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB38">
         <v>8.3678203055913405E-2</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AD38" t="s">
         <v>32</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <v>24</v>
       </c>
-      <c r="AD38" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE38">
+      <c r="AF38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG38">
         <v>0.15157779709254399</v>
       </c>
     </row>
-    <row r="39" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24" t="s">
+    <row r="39" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="21">
         <v>-22.611000000000001</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="21">
         <v>11</v>
       </c>
       <c r="F39" s="9">
@@ -4012,575 +4254,575 @@
       <c r="G39" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="17">
+      <c r="J39" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="15">
         <v>3.05</v>
       </c>
-      <c r="L39" s="17">
+      <c r="N39" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M39" t="str">
+      <c r="O39" t="str">
         <f t="shared" si="0"/>
         <v>3.05±0.14</v>
       </c>
-      <c r="N39">
-        <v>3.0512999999999999</v>
-      </c>
-      <c r="O39">
-        <v>0.13547075815758</v>
-      </c>
       <c r="P39">
         <v>3.0512999999999999</v>
       </c>
       <c r="Q39">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="R39">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="S39">
         <v>2.9157500000000001</v>
       </c>
-      <c r="R39" s="15">
+      <c r="T39" s="13">
         <v>3.0512999999999999</v>
       </c>
-      <c r="S39" s="15">
+      <c r="U39" s="13">
         <v>0.13547075815758</v>
       </c>
-      <c r="W39" t="s">
+      <c r="Y39" t="s">
         <v>26</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <v>24</v>
       </c>
-      <c r="Y39" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z39">
+      <c r="AA39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB39">
         <v>0.12639469770859599</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AD39" t="s">
         <v>26</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <v>24</v>
       </c>
-      <c r="AD39" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE39">
+      <c r="AF39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG39">
         <v>0.13958054736052</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="9">
         <v>20</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="17">
+      <c r="J40" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="15">
         <v>2.92</v>
       </c>
-      <c r="L40" s="17">
+      <c r="N40" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M40" t="str">
+      <c r="O40" t="str">
         <f t="shared" si="0"/>
         <v>2.92±0.14</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>2.9157500000000001</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>0.14136733598752799</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>2.7376499999999999</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>2.7989000000000002</v>
       </c>
-      <c r="R40" s="15">
+      <c r="T40" s="13">
         <v>2.9157500000000001</v>
       </c>
-      <c r="S40" s="15">
+      <c r="U40" s="13">
         <v>0.14136733598752799</v>
       </c>
-      <c r="W40" t="s">
+      <c r="Y40" t="s">
         <v>46</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <v>24</v>
       </c>
-      <c r="Y40" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z40">
+      <c r="AA40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB40">
         <v>7.8878637625685505E-2</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AD40" t="s">
         <v>46</v>
       </c>
-      <c r="AC40">
+      <c r="AE40">
         <v>24</v>
       </c>
-      <c r="AD40" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE40">
+      <c r="AF40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG40">
         <v>0.117569811288084</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="9">
         <v>20</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="17">
+      <c r="J41" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="15">
         <v>2.74</v>
       </c>
-      <c r="L41" s="17">
+      <c r="N41" s="15">
         <v>0.11</v>
       </c>
-      <c r="M41" t="str">
+      <c r="O41" t="str">
         <f t="shared" si="0"/>
         <v>2.74±0.11</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>2.7376499999999999</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>0.105864498795692</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>2.6284375</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>2.6732499999999999</v>
       </c>
-      <c r="R41" s="15">
+      <c r="T41" s="13">
         <v>2.7376499999999999</v>
       </c>
-      <c r="S41" s="15">
+      <c r="U41" s="13">
         <v>0.105864498795692</v>
       </c>
-      <c r="W41" t="s">
+      <c r="Y41" t="s">
         <v>52</v>
       </c>
-      <c r="X41">
+      <c r="Z41">
         <v>24</v>
       </c>
-      <c r="Y41" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z41">
+      <c r="AA41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB41">
         <v>0.123733986500091</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AD41" t="s">
         <v>52</v>
       </c>
-      <c r="AC41">
+      <c r="AE41">
         <v>24</v>
       </c>
-      <c r="AD41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE41">
+      <c r="AF41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG41">
         <v>0.175544686168808</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="9">
         <v>20</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="17">
+      <c r="J42" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="15">
         <v>2.8</v>
       </c>
-      <c r="L42" s="17">
+      <c r="N42" s="15">
         <v>0.1</v>
       </c>
-      <c r="M42" t="str">
+      <c r="O42" t="str">
         <f t="shared" si="0"/>
         <v>2.8±0.1</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>2.7989000000000002</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>0.104269337471963</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>0.13547075815758</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>0.14136733598752799</v>
       </c>
-      <c r="R42" s="15">
+      <c r="T42" s="13">
         <v>2.7989000000000002</v>
       </c>
-      <c r="S42" s="15">
+      <c r="U42" s="13">
         <v>0.104269337471963</v>
       </c>
-      <c r="W42" t="s">
+      <c r="Y42" t="s">
         <v>39</v>
       </c>
-      <c r="X42">
+      <c r="Z42">
         <v>24</v>
       </c>
-      <c r="Y42" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z42">
+      <c r="AA42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB42">
         <v>0.105864498795692</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AD42" t="s">
         <v>39</v>
       </c>
-      <c r="AC42">
+      <c r="AE42">
         <v>24</v>
       </c>
-      <c r="AD42" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE42">
+      <c r="AF42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG42">
         <v>0.104269337471963</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="9">
         <v>16</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="17">
+      <c r="J43" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="15">
         <v>2.63</v>
       </c>
-      <c r="L43" s="17">
+      <c r="N43" s="15">
         <v>0.11</v>
       </c>
-      <c r="M43" t="str">
+      <c r="O43" t="str">
         <f t="shared" si="0"/>
         <v>2.63±0.11</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>2.6284375</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>0.106593913991372</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>0.105864498795692</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>0.104269337471963</v>
       </c>
-      <c r="R43" s="15">
+      <c r="T43" s="13">
         <v>2.6284375</v>
       </c>
-      <c r="S43" s="15">
+      <c r="U43" s="13">
         <v>0.106593913991372</v>
       </c>
-      <c r="W43" t="s">
-        <v>20</v>
-      </c>
-      <c r="X43">
+      <c r="Y43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43">
         <v>28</v>
       </c>
-      <c r="Y43" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z43">
+      <c r="AA43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB43">
         <v>0.117972019430122</v>
       </c>
-      <c r="AB43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC43">
+      <c r="AD43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE43">
         <v>28</v>
       </c>
-      <c r="AD43" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE43">
+      <c r="AF43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG43">
         <v>0.14913394721030601</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="9">
         <v>16</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="17">
+      <c r="J44" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="15">
         <v>2.67</v>
       </c>
-      <c r="L44" s="17">
+      <c r="N44" s="15">
         <v>0.13</v>
       </c>
-      <c r="M44" t="str">
+      <c r="O44" t="str">
         <f t="shared" si="0"/>
         <v>2.67±0.13</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>2.6732499999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.13212443629649501</v>
-      </c>
-      <c r="P44">
-        <v>0.106593913991372</v>
       </c>
       <c r="Q44">
         <v>0.13212443629649501</v>
       </c>
-      <c r="R44" s="15">
+      <c r="R44">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="S44">
+        <v>0.13212443629649501</v>
+      </c>
+      <c r="T44" s="13">
         <v>2.6732499999999999</v>
       </c>
-      <c r="S44" s="15">
+      <c r="U44" s="13">
         <v>0.13212443629649501</v>
       </c>
-      <c r="W44" t="s">
+      <c r="Y44" t="s">
         <v>14</v>
       </c>
-      <c r="X44">
+      <c r="Z44">
         <v>28</v>
       </c>
-      <c r="Y44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z44">
+      <c r="AA44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB44">
         <v>0.10088437747762299</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AD44" t="s">
         <v>14</v>
       </c>
-      <c r="AC44">
+      <c r="AE44">
         <v>28</v>
       </c>
-      <c r="AD44" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE44">
+      <c r="AF44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG44">
         <v>0.13455536498058801</v>
       </c>
     </row>
-    <row r="45" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E45">
         <f>SUM(E3:E44)</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F45">
         <f>SUM(F3:F44)</f>
         <v>870</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="W45" t="s">
+      <c r="M45" s="16"/>
+      <c r="Y45" t="s">
         <v>32</v>
       </c>
-      <c r="X45">
+      <c r="Z45">
         <v>28</v>
       </c>
-      <c r="Y45" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z45">
+      <c r="AA45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB45">
         <v>0.13263819388166601</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AD45" t="s">
         <v>32</v>
       </c>
-      <c r="AC45">
+      <c r="AE45">
         <v>28</v>
       </c>
-      <c r="AD45" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE45">
+      <c r="AF45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG45">
         <v>0.10870962986659</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="W46" t="s">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Y46" t="s">
         <v>26</v>
       </c>
-      <c r="X46">
+      <c r="Z46">
         <v>28</v>
       </c>
-      <c r="Y46" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z46">
+      <c r="AA46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB46">
         <v>0.103782340807972</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AD46" t="s">
         <v>26</v>
       </c>
-      <c r="AC46">
+      <c r="AE46">
         <v>28</v>
       </c>
-      <c r="AD46" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE46">
+      <c r="AF46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG46">
         <v>0.12501107327274799</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="W47" t="s">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Y47" t="s">
         <v>46</v>
       </c>
-      <c r="X47">
+      <c r="Z47">
         <v>28</v>
       </c>
-      <c r="Y47" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z47">
+      <c r="AA47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB47">
         <v>0.10129398329926401</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AD47" t="s">
         <v>46</v>
       </c>
-      <c r="AC47">
+      <c r="AE47">
         <v>28</v>
       </c>
-      <c r="AD47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE47">
+      <c r="AF47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG47">
         <v>0.127005553131805</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="W48" t="s">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Y48" t="s">
         <v>52</v>
       </c>
-      <c r="X48">
+      <c r="Z48">
         <v>28</v>
       </c>
-      <c r="Y48" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z48">
+      <c r="AA48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB48">
         <v>0.158339811270992</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AD48" t="s">
         <v>52</v>
       </c>
-      <c r="AC48">
+      <c r="AE48">
         <v>28</v>
       </c>
-      <c r="AD48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE48">
+      <c r="AF48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG48">
         <v>0.17050835585156701</v>
       </c>
     </row>
-    <row r="49" spans="23:31" x14ac:dyDescent="0.25">
-      <c r="W49" t="s">
+    <row r="49" spans="25:33" x14ac:dyDescent="0.25">
+      <c r="Y49" t="s">
         <v>39</v>
       </c>
-      <c r="X49">
+      <c r="Z49">
         <v>28</v>
       </c>
-      <c r="Y49" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z49">
+      <c r="AA49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB49">
         <v>0.106593913991372</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AD49" t="s">
         <v>39</v>
       </c>
-      <c r="AC49">
+      <c r="AE49">
         <v>28</v>
       </c>
-      <c r="AD49" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE49">
+      <c r="AF49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG49">
         <v>0.13212443629649501</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="E33:E38"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D39:D44"/>
     <mergeCell ref="E39:E44"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="C33:C38"/>
     <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="C33:C38"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:B26"/>
     <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="E3:E8"/>
+    <mergeCell ref="C9:C14"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:E14"/>
+    <mergeCell ref="C15:C20"/>
     <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4589,16 +4831,3167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AG49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="25.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="21">
+        <v>-2.8639999999999999</v>
+      </c>
+      <c r="E3" s="9">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="15">
+        <v>2.71</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O3" t="str">
+        <f>M3&amp;$O$2&amp;N3</f>
+        <v>2.71±0.11</v>
+      </c>
+      <c r="P3">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.10562310104179</v>
+      </c>
+      <c r="R3">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="S3">
+        <v>2.7927499999999998</v>
+      </c>
+      <c r="T3" s="13">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0.10562310104179</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="9">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="15">
+        <v>2.79</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O44" si="0">M4&amp;$O$2&amp;N4</f>
+        <v>2.79±0.12</v>
+      </c>
+      <c r="P4">
+        <v>2.7927499999999998</v>
+      </c>
+      <c r="Q4">
+        <v>0.11752037897183699</v>
+      </c>
+      <c r="R4">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="S4">
+        <v>2.6454499999999999</v>
+      </c>
+      <c r="T4" s="13">
+        <v>2.7927499999999998</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0.11752037897183699</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="9">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>2.64±0.13</v>
+      </c>
+      <c r="P5">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="R5">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="S5">
+        <v>2.5722499999999999</v>
+      </c>
+      <c r="T5" s="13">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="9">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15">
+        <v>2.65</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>2.65±0.11</v>
+      </c>
+      <c r="P6">
+        <v>2.6454499999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.11252530709508</v>
+      </c>
+      <c r="R6">
+        <v>0.10562310104179</v>
+      </c>
+      <c r="S6">
+        <v>0.11752037897183699</v>
+      </c>
+      <c r="T6" s="13">
+        <v>2.6454499999999999</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0.11252530709508</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6">
+        <v>20</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6">
+        <v>2.7148500000000002</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE6">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG6">
+        <v>2.7927499999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="9">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="15">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>2.45±0.12</v>
+      </c>
+      <c r="P7">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="R7">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="S7">
+        <v>0.11252530709508</v>
+      </c>
+      <c r="T7" s="13">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7">
+        <v>20</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7">
+        <v>2.7706400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="9">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="15">
+        <v>2.57</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>2.57±0.15</v>
+      </c>
+      <c r="P8">
+        <v>2.5722499999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.14913394721030601</v>
+      </c>
+      <c r="R8">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="S8">
+        <v>0.14913394721030601</v>
+      </c>
+      <c r="T8" s="13">
+        <v>2.5722499999999999</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0.14913394721030601</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE8">
+        <v>20</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG8">
+        <v>2.8869130434782599</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-3.028</v>
+      </c>
+      <c r="E9" s="9">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>2.75±0.09</v>
+      </c>
+      <c r="P9">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="Q9">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="S9">
+        <v>2.7706400000000002</v>
+      </c>
+      <c r="T9" s="13">
+        <v>2.7518400000000001</v>
+      </c>
+      <c r="U9" s="13">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9">
+        <v>20</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE9">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG9">
+        <v>2.7814056539090899</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="9">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>2.77±0.1</v>
+      </c>
+      <c r="P10">
+        <v>2.7706400000000002</v>
+      </c>
+      <c r="Q10">
+        <v>9.6553905496705103E-2</v>
+      </c>
+      <c r="R10">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="S10">
+        <v>2.6054347826086999</v>
+      </c>
+      <c r="T10" s="13">
+        <v>2.7706400000000002</v>
+      </c>
+      <c r="U10" s="13">
+        <v>9.6553905496705103E-2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10">
+        <v>20</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE10">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG10">
+        <v>2.7998500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="9">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="15">
+        <v>2.61</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.13</v>
+      </c>
+      <c r="P11">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="Q11">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="R11">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="S11">
+        <v>2.5823478260869601</v>
+      </c>
+      <c r="T11" s="13">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE11">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG11">
+        <v>2.8631052631578902</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="9">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15">
+        <v>2.61</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.13</v>
+      </c>
+      <c r="P12">
+        <v>2.6054347826086999</v>
+      </c>
+      <c r="Q12">
+        <v>0.128136584119147</v>
+      </c>
+      <c r="R12">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="S12">
+        <v>9.6553905496705103E-2</v>
+      </c>
+      <c r="T12" s="13">
+        <v>2.6054347826086999</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0.128136584119147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE12">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG12">
+        <v>2.9157500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="9">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>2.47±0.1</v>
+      </c>
+      <c r="P13">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="Q13">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="R13">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="S13">
+        <v>0.128136584119147</v>
+      </c>
+      <c r="T13" s="13">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13">
+        <v>24</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13">
+        <v>2.6377000000000002</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE13">
+        <v>24</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG13">
+        <v>2.6454499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="9">
+        <v>23</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15">
+        <v>2.58</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>2.58±0.13</v>
+      </c>
+      <c r="P14">
+        <v>2.5823478260869601</v>
+      </c>
+      <c r="Q14">
+        <v>0.13455536498058801</v>
+      </c>
+      <c r="R14">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="S14">
+        <v>0.13455536498058801</v>
+      </c>
+      <c r="T14" s="13">
+        <v>2.5823478260869601</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0.13455536498058801</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>24</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB14">
+        <v>2.6085909090909101</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14">
+        <v>24</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG14">
+        <v>2.6054347826086999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="26"/>
+      <c r="C15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="21">
+        <v>-8.7420000000000009</v>
+      </c>
+      <c r="E15" s="9">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>2.75±0.16</v>
+      </c>
+      <c r="P15">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="Q15">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="R15">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="S15">
+        <v>2.8869130434782599</v>
+      </c>
+      <c r="T15" s="13">
+        <v>2.7472727272727302</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE15">
+        <v>24</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG15">
+        <v>2.67814285714286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="9">
+        <v>23</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15">
+        <v>2.89</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>2.89±0.15</v>
+      </c>
+      <c r="P16">
+        <v>2.8869130434782599</v>
+      </c>
+      <c r="Q16">
+        <v>0.150985825055165</v>
+      </c>
+      <c r="R16">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="S16">
+        <v>2.67814285714286</v>
+      </c>
+      <c r="T16" s="13">
+        <v>2.8869130434782599</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0.150985825055165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16">
+        <v>24</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE16">
+        <v>24</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG16">
+        <v>2.6828999143600001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="9">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="15">
+        <v>2.61</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.08</v>
+      </c>
+      <c r="P17">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="Q17">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="R17">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="S17">
+        <v>2.5086842105263201</v>
+      </c>
+      <c r="T17" s="13">
+        <v>2.60595833333333</v>
+      </c>
+      <c r="U17" s="13">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB17">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE17">
+        <v>24</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG17">
+        <v>2.7643499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="9">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="15">
+        <v>2.68</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>2.68±0.15</v>
+      </c>
+      <c r="P18">
+        <v>2.67814285714286</v>
+      </c>
+      <c r="Q18">
+        <v>0.15157779709254399</v>
+      </c>
+      <c r="R18">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="S18">
+        <v>0.150985825055165</v>
+      </c>
+      <c r="T18" s="13">
+        <v>2.67814285714286</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0.15157779709254399</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z18">
+        <v>24</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB18">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE18">
+        <v>24</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG18">
+        <v>2.7706</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="9">
+        <v>20</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>2.4±0.13</v>
+      </c>
+      <c r="P19">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="Q19">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="R19">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="S19">
+        <v>0.15157779709254399</v>
+      </c>
+      <c r="T19" s="13">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19">
+        <v>24</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB19">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE19">
+        <v>24</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG19">
+        <v>2.7989000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="9">
+        <v>20</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="15">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>2.51±0.11</v>
+      </c>
+      <c r="P20">
+        <v>2.5086842105263201</v>
+      </c>
+      <c r="Q20">
+        <v>0.10870962986659</v>
+      </c>
+      <c r="R20">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="S20">
+        <v>0.10870962986659</v>
+      </c>
+      <c r="T20" s="13">
+        <v>2.5086842105263201</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0.10870962986659</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20">
+        <v>28</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB20">
+        <v>2.4538500000000001</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE20">
+        <v>28</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG20">
+        <v>2.5722499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="21">
+        <v>-9.2230000000000008</v>
+      </c>
+      <c r="E21" s="9">
+        <v>25</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>2.77±0.13</v>
+      </c>
+      <c r="P21">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="Q21">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="R21">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="S21">
+        <v>2.7814056539090899</v>
+      </c>
+      <c r="T21" s="13">
+        <v>2.7730103111200002</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z21">
+        <v>28</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB21">
+        <v>2.4672523809523801</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21">
+        <v>28</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG21">
+        <v>2.5823478260869601</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="9">
+        <v>22</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>2.78±0.11</v>
+      </c>
+      <c r="P22">
+        <v>2.7814056539090899</v>
+      </c>
+      <c r="Q22">
+        <v>0.110467302362971</v>
+      </c>
+      <c r="R22">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="S22">
+        <v>2.6828999143600001</v>
+      </c>
+      <c r="T22" s="13">
+        <v>2.7814056539090899</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0.110467302362971</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z22">
+        <v>28</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB22">
+        <v>2.4047619047619002</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE22">
+        <v>28</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG22">
+        <v>2.5086842105263201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="9">
+        <v>24</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="15">
+        <v>2.61</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>2.61±0.13</v>
+      </c>
+      <c r="P23">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="Q23">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="R23">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="S23">
+        <v>2.5744362211</v>
+      </c>
+      <c r="T23" s="13">
+        <v>2.6138485365833302</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z23">
+        <v>28</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE23">
+        <v>28</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG23">
+        <v>2.5744362211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="9">
+        <v>25</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="15">
+        <v>2.68</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>2.68±0.14</v>
+      </c>
+      <c r="P24">
+        <v>2.6828999143600001</v>
+      </c>
+      <c r="Q24">
+        <v>0.13958054736052</v>
+      </c>
+      <c r="R24">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="S24">
+        <v>0.110467302362971</v>
+      </c>
+      <c r="T24" s="13">
+        <v>2.6828999143600001</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0.13958054736052</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z24">
+        <v>28</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24">
+        <v>2.52495</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE24">
+        <v>28</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG24">
+        <v>2.5769000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="9">
+        <v>20</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>2.5±0.1</v>
+      </c>
+      <c r="P25">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="Q25">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="R25">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="S25">
+        <v>0.13958054736052</v>
+      </c>
+      <c r="T25" s="13">
+        <v>2.4982453436499998</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z25">
+        <v>28</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB25">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE25">
+        <v>28</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG25">
+        <v>2.6201052631578898</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="9">
+        <v>20</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="15">
+        <v>2.57</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>2.57±0.13</v>
+      </c>
+      <c r="P26">
+        <v>2.5744362211</v>
+      </c>
+      <c r="Q26">
+        <v>0.12501107327274799</v>
+      </c>
+      <c r="R26">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="S26">
+        <v>0.12501107327274799</v>
+      </c>
+      <c r="T26" s="13">
+        <v>2.5744362211</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0.12501107327274799</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26">
+        <v>28</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26">
+        <v>2.6284375</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE26">
+        <v>28</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG26">
+        <v>2.6732499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="21">
+        <v>-10.7</v>
+      </c>
+      <c r="E27" s="9">
+        <v>20</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="15">
+        <v>2.75</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>2.75±0.11</v>
+      </c>
+      <c r="P27">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.108184005044038</v>
+      </c>
+      <c r="R27">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="S27">
+        <v>2.7998500000000002</v>
+      </c>
+      <c r="T27" s="13">
+        <v>2.7530999999999999</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0.108184005044038</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="9">
+        <v>20</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>2.8±0.16</v>
+      </c>
+      <c r="P28">
+        <v>2.7998500000000002</v>
+      </c>
+      <c r="Q28">
+        <v>0.156576288787691</v>
+      </c>
+      <c r="R28">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="S28">
+        <v>2.7643499999999999</v>
+      </c>
+      <c r="T28" s="13">
+        <v>2.7998500000000002</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0.156576288787691</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="9">
+        <v>20</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="15">
+        <v>2.66</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>2.66±0.08</v>
+      </c>
+      <c r="P29">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="Q29">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="R29">
+        <v>2.52495</v>
+      </c>
+      <c r="S29">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="T29" s="13">
+        <v>2.6580499999999998</v>
+      </c>
+      <c r="U29" s="13">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29">
+        <v>20</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29">
+        <v>0.10562310104179</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE29">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG29">
+        <v>0.11752037897183699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="9">
+        <v>20</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="15">
+        <v>2.76</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>2.76±0.12</v>
+      </c>
+      <c r="P30">
+        <v>2.7643499999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.117569811288084</v>
+      </c>
+      <c r="R30">
+        <v>0.108184005044038</v>
+      </c>
+      <c r="S30">
+        <v>0.156576288787691</v>
+      </c>
+      <c r="T30" s="13">
+        <v>2.7643499999999999</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0.117569811288084</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z30">
+        <v>20</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB30">
+        <v>9.2692448451856105E-2</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE30">
+        <v>20</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG30">
+        <v>9.6553905496705103E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="9">
+        <v>20</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="15">
+        <v>2.52</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>2.52±0.1</v>
+      </c>
+      <c r="P31">
+        <v>2.52495</v>
+      </c>
+      <c r="Q31">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="R31">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="S31">
+        <v>0.117569811288084</v>
+      </c>
+      <c r="T31" s="13">
+        <v>2.52495</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB31">
+        <v>0.161770908508999</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE31">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG31">
+        <v>0.150985825055165</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="9">
+        <v>20</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="15">
+        <v>2.58</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>2.58±0.13</v>
+      </c>
+      <c r="P32">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="Q32">
+        <v>0.127005553131805</v>
+      </c>
+      <c r="R32">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="S32">
+        <v>0.127005553131805</v>
+      </c>
+      <c r="T32" s="13">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0.127005553131805</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z32">
+        <v>20</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB32">
+        <v>0.127101918509922</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE32">
+        <v>20</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG32">
+        <v>0.110467302362971</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-10.795999999999999</v>
+      </c>
+      <c r="E33" s="9">
+        <v>19</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="15">
+        <v>2.79</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="0"/>
+        <v>2.79±0.11</v>
+      </c>
+      <c r="P33">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="R33">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="S33">
+        <v>2.8631052631578902</v>
+      </c>
+      <c r="T33" s="13">
+        <v>2.7880500000000001</v>
+      </c>
+      <c r="U33" s="13">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z33">
+        <v>20</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB33">
+        <v>0.108184005044038</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE33">
+        <v>20</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG33">
+        <v>0.156576288787691</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="9">
+        <v>19</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="15">
+        <v>2.86</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>2.86±0.14</v>
+      </c>
+      <c r="P34">
+        <v>2.8631052631578902</v>
+      </c>
+      <c r="Q34">
+        <v>0.14377022359648201</v>
+      </c>
+      <c r="R34">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="S34">
+        <v>2.7706</v>
+      </c>
+      <c r="T34" s="13">
+        <v>2.8631052631578902</v>
+      </c>
+      <c r="U34" s="13">
+        <v>0.14377022359648201</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z34">
+        <v>20</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB34">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE34">
+        <v>20</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG34">
+        <v>0.14377022359648201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="9">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="15">
+        <v>2.66</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="0"/>
+        <v>2.66±0.12</v>
+      </c>
+      <c r="P35">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="Q35">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="R35">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="S35">
+        <v>2.6201052631578898</v>
+      </c>
+      <c r="T35" s="13">
+        <v>2.65510526315789</v>
+      </c>
+      <c r="U35" s="13">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB35">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE35">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG35">
+        <v>0.14136733598752799</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="9">
+        <v>20</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="15">
+        <v>2.77</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="0"/>
+        <v>2.77±0.18</v>
+      </c>
+      <c r="P36">
+        <v>2.7706</v>
+      </c>
+      <c r="Q36">
+        <v>0.175544686168808</v>
+      </c>
+      <c r="R36">
+        <v>0.112950140374089</v>
+      </c>
+      <c r="S36">
+        <v>0.14377022359648201</v>
+      </c>
+      <c r="T36" s="13">
+        <v>2.7706</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0.175544686168808</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36">
+        <v>24</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB36">
+        <v>0.13091584279504501</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE36">
+        <v>24</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG36">
+        <v>0.11252530709508</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="9">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="15">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="0"/>
+        <v>2.53±0.16</v>
+      </c>
+      <c r="P37">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="Q37">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="R37">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="S37">
+        <v>0.175544686168808</v>
+      </c>
+      <c r="T37" s="13">
+        <v>2.5301874999999998</v>
+      </c>
+      <c r="U37" s="13">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z37">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB37">
+        <v>0.13080980707770201</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE37">
+        <v>24</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG37">
+        <v>0.128136584119147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="9">
+        <v>19</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="15">
+        <v>2.62</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="0"/>
+        <v>2.62±0.17</v>
+      </c>
+      <c r="P38">
+        <v>2.6201052631578898</v>
+      </c>
+      <c r="Q38">
+        <v>0.17050835585156701</v>
+      </c>
+      <c r="R38">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="S38">
+        <v>0.17050835585156701</v>
+      </c>
+      <c r="T38" s="13">
+        <v>2.6201052631578898</v>
+      </c>
+      <c r="U38" s="13">
+        <v>0.17050835585156701</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z38">
+        <v>24</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB38">
+        <v>8.3678203055913405E-2</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE38">
+        <v>24</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG38">
+        <v>0.15157779709254399</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="21">
+        <v>-22.611000000000001</v>
+      </c>
+      <c r="E39" s="9">
+        <v>20</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="15">
+        <v>3.05</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="0"/>
+        <v>3.05±0.14</v>
+      </c>
+      <c r="P39">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="Q39">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="R39">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="S39">
+        <v>2.9157500000000001</v>
+      </c>
+      <c r="T39" s="13">
+        <v>3.0512999999999999</v>
+      </c>
+      <c r="U39" s="13">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z39">
+        <v>24</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB39">
+        <v>0.12639469770859599</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE39">
+        <v>24</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG39">
+        <v>0.13958054736052</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="9">
+        <v>20</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="15">
+        <v>2.92</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="0"/>
+        <v>2.92±0.14</v>
+      </c>
+      <c r="P40">
+        <v>2.9157500000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.14136733598752799</v>
+      </c>
+      <c r="R40">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="S40">
+        <v>2.7989000000000002</v>
+      </c>
+      <c r="T40" s="13">
+        <v>2.9157500000000001</v>
+      </c>
+      <c r="U40" s="13">
+        <v>0.14136733598752799</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z40">
+        <v>24</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB40">
+        <v>7.8878637625685505E-2</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE40">
+        <v>24</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG40">
+        <v>0.117569811288084</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="9">
+        <v>20</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="15">
+        <v>2.74</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="0"/>
+        <v>2.74±0.11</v>
+      </c>
+      <c r="P41">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="Q41">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="R41">
+        <v>2.6284375</v>
+      </c>
+      <c r="S41">
+        <v>2.6732499999999999</v>
+      </c>
+      <c r="T41" s="13">
+        <v>2.7376499999999999</v>
+      </c>
+      <c r="U41" s="13">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z41">
+        <v>24</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB41">
+        <v>0.123733986500091</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE41">
+        <v>24</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG41">
+        <v>0.175544686168808</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="9">
+        <v>20</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="0"/>
+        <v>2.8±0.1</v>
+      </c>
+      <c r="P42">
+        <v>2.7989000000000002</v>
+      </c>
+      <c r="Q42">
+        <v>0.104269337471963</v>
+      </c>
+      <c r="R42">
+        <v>0.13547075815758</v>
+      </c>
+      <c r="S42">
+        <v>0.14136733598752799</v>
+      </c>
+      <c r="T42" s="13">
+        <v>2.7989000000000002</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0.104269337471963</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z42">
+        <v>24</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB42">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE42">
+        <v>24</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG42">
+        <v>0.104269337471963</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="9">
+        <v>16</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="15">
+        <v>2.63</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="0"/>
+        <v>2.63±0.11</v>
+      </c>
+      <c r="P43">
+        <v>2.6284375</v>
+      </c>
+      <c r="Q43">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="R43">
+        <v>0.105864498795692</v>
+      </c>
+      <c r="S43">
+        <v>0.104269337471963</v>
+      </c>
+      <c r="T43" s="13">
+        <v>2.6284375</v>
+      </c>
+      <c r="U43" s="13">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43">
+        <v>28</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB43">
+        <v>0.117972019430122</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE43">
+        <v>28</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG43">
+        <v>0.14913394721030601</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="9">
+        <v>16</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="15">
+        <v>2.67</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v>2.67±0.13</v>
+      </c>
+      <c r="P44">
+        <v>2.6732499999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.13212443629649501</v>
+      </c>
+      <c r="R44">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="S44">
+        <v>0.13212443629649501</v>
+      </c>
+      <c r="T44" s="13">
+        <v>2.6732499999999999</v>
+      </c>
+      <c r="U44" s="13">
+        <v>0.13212443629649501</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z44">
+        <v>28</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB44">
+        <v>0.10088437747762299</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE44">
+        <v>28</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG44">
+        <v>0.13455536498058801</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f>SUM(E3:E44)</f>
+        <v>870</v>
+      </c>
+      <c r="M45" s="16"/>
+      <c r="Y45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z45">
+        <v>28</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB45">
+        <v>0.13263819388166601</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE45">
+        <v>28</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG45">
+        <v>0.10870962986659</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Y46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z46">
+        <v>28</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB46">
+        <v>0.103782340807972</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE46">
+        <v>28</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG46">
+        <v>0.12501107327274799</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Y47" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z47">
+        <v>28</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB47">
+        <v>0.10129398329926401</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE47">
+        <v>28</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG47">
+        <v>0.127005553131805</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Y48" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z48">
+        <v>28</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB48">
+        <v>0.158339811270992</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE48">
+        <v>28</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG48">
+        <v>0.17050835585156701</v>
+      </c>
+    </row>
+    <row r="49" spans="25:33" x14ac:dyDescent="0.25">
+      <c r="Y49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49">
+        <v>28</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB49">
+        <v>0.106593913991372</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE49">
+        <v>28</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG49">
+        <v>0.13212443629649501</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B3:B26"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="C33:C38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4608,46 +8001,52 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" t="s">
         <v>207</v>
-      </c>
-      <c r="E3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="20">
         <v>-2.8639999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>257</v>
+      <c r="E4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="J4">
         <v>2.9239117647058799</v>
@@ -4658,17 +8057,23 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="20">
         <v>-3.028</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
-        <v>258</v>
+      <c r="E5" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="J5">
         <v>2.9721060000000001</v>
@@ -4679,17 +8084,23 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="20">
         <v>-8.7420000000000009</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
-        <v>259</v>
+      <c r="E6" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="J6">
         <v>2.9521851063829798</v>
@@ -4700,17 +8111,23 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="20">
         <v>-9.2230000000000008</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>260</v>
+      <c r="E7" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="J7">
         <v>3.0206266666666699</v>
@@ -4723,17 +8140,23 @@
       <c r="A8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="20">
         <v>-10.7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
-        <v>261</v>
+      <c r="E8" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="J8">
         <v>3.0870500000000001</v>
@@ -4744,17 +8167,23 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="20">
         <v>-10.795999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>262</v>
+      <c r="E9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="J9">
         <v>3.0389352941176502</v>
@@ -4764,20 +8193,26 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="20">
         <v>-22.611000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>263</v>
+      <c r="E10" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="J10">
         <v>3.4996</v>
@@ -4786,47 +8221,197 @@
         <v>9.8969480144133398E-2</v>
       </c>
     </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>3.0986347246470598</v>
+      </c>
+      <c r="D22">
+        <v>0.20522126865535201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>2.7026789569411802</v>
+      </c>
+      <c r="G22">
+        <v>0.17610746697228999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>3.14828384642</v>
+      </c>
+      <c r="D23">
+        <v>0.190726752734031</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>2.7535355892600002</v>
+      </c>
+      <c r="G23">
+        <v>0.178143960805171</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>3.1313177588723402</v>
+      </c>
+      <c r="D24">
+        <v>0.17791406004851301</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24">
+        <v>2.7455727560212799</v>
+      </c>
+      <c r="G24">
+        <v>0.158650114401581</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
       <c r="J24" t="s">
-        <v>211</v>
-      </c>
-      <c r="K24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>3.2063008593777802</v>
+      </c>
+      <c r="D25">
+        <v>0.18961415831403899</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>2.8270376341333301</v>
+      </c>
+      <c r="G25">
+        <v>0.17183312735008299</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25">
         <v>0.196231782219245</v>
       </c>
     </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J26" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>3.2682889415185201</v>
+      </c>
+      <c r="D26">
+        <v>0.17104204077648599</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26">
+        <v>2.8696942034259298</v>
+      </c>
+      <c r="G26">
+        <v>0.14751854702856501</v>
+      </c>
+      <c r="I26" t="s">
         <v>14</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>0.18150142677799799</v>
       </c>
     </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>3.2254882299411798</v>
+      </c>
+      <c r="D27">
+        <v>0.16590156479615401</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>2.8886515502941199</v>
+      </c>
+      <c r="G27">
+        <v>0.14635442953532199</v>
+      </c>
+      <c r="I27" t="s">
         <v>32</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>0.17732182113778</v>
       </c>
     </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>3.6962776705454501</v>
+      </c>
+      <c r="D28">
+        <v>0.102211609386996</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>3.25951308345455</v>
+      </c>
+      <c r="G28">
+        <v>0.105327142795377</v>
+      </c>
+      <c r="I28" t="s">
         <v>26</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>0.178209056753833</v>
       </c>
     </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>46</v>
       </c>
@@ -4834,7 +8419,7 @@
         <v>0.16956123483417601</v>
       </c>
     </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
         <v>52</v>
       </c>
@@ -4842,7 +8427,7 @@
         <v>0.16698587118816499</v>
       </c>
     </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>39</v>
       </c>
@@ -4860,7 +8445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -5487,7 +9072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5499,7 +9084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F127"/>
   <sheetViews>

--- a/Summary wing excel files/Wing descriptive data.xlsx
+++ b/Summary wing excel files/Wing descriptive data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\Dropbox\Wing project\Summary wing excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\OneDrive\Documents\GitHub\wingproj\Summary wing excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="81" documentId="1C49C07586A5F6961C02DFD3E5A80E8E65856ED8" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{8E000BC7-97F6-43A3-92F7-4FA7FA5CA244}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="11850" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="206">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -651,7 +652,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,7 +693,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -763,11 +764,350 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -790,13 +1130,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -806,8 +1141,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1123,19 +1531,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1165,27 +1573,27 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -1196,56 +1604,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:AJ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:36" x14ac:dyDescent="0.35">
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
         <v>-2.8639999999999999</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="15">
         <v>17</v>
       </c>
       <c r="F3" s="9">
@@ -1255,11 +1709,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="9">
         <v>20</v>
       </c>
@@ -1267,11 +1721,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="9">
         <v>20</v>
       </c>
@@ -1279,11 +1733,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="9">
         <v>20</v>
       </c>
@@ -1291,11 +1745,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="9">
         <v>20</v>
       </c>
@@ -1303,11 +1757,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="9">
         <v>20</v>
       </c>
@@ -1315,15 +1769,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="12"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="17"/>
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="15">
         <v>-3.028</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="15">
         <v>50</v>
       </c>
       <c r="F9" s="9">
@@ -1333,75 +1787,291 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+    <row r="10" spans="2:36" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="9">
         <v>25</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="27"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="9">
         <v>25</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="28"/>
+    </row>
+    <row r="12" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="9">
         <v>23</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="20">
+        <v>-2.8639999999999999</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15">
+        <v>-3.028</v>
+      </c>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15">
+        <v>-8.7420000000000009</v>
+      </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15">
+        <v>-9.2230000000000008</v>
+      </c>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="28"/>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="9">
         <v>21</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="K13" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" s="20">
+        <v>17</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15">
+        <v>50</v>
+      </c>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15">
+        <v>47</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15">
+        <v>45</v>
+      </c>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="28"/>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B14" s="17"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="9">
         <v>23</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="12"/>
-      <c r="C15" s="10" t="s">
+      <c r="K14" s="40"/>
+      <c r="L14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="23">
+        <v>20</v>
+      </c>
+      <c r="N14" s="9">
+        <v>20</v>
+      </c>
+      <c r="O14" s="9">
+        <v>20</v>
+      </c>
+      <c r="P14" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>20</v>
+      </c>
+      <c r="R14" s="9">
+        <v>20</v>
+      </c>
+      <c r="S14" s="9">
+        <v>22</v>
+      </c>
+      <c r="T14" s="9">
+        <v>25</v>
+      </c>
+      <c r="U14" s="9">
+        <v>25</v>
+      </c>
+      <c r="V14" s="9">
+        <v>23</v>
+      </c>
+      <c r="W14" s="9">
+        <v>21</v>
+      </c>
+      <c r="X14" s="9">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>21</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>20</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>25</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>22</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>24</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>25</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ14" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17"/>
+      <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="15">
         <v>-8.7420000000000009</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="15">
         <v>47</v>
       </c>
       <c r="F15" s="9">
@@ -1410,76 +2080,322 @@
       <c r="G15" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="W15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X15" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z15" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA15" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB15" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD15" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE15" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF15" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG15" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH15" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ15" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.35">
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="9">
         <v>23</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="34"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="9">
         <v>24</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="12"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="36"/>
+    </row>
+    <row r="18" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="9">
         <v>21</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="35">
+        <v>-10.7</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="18">
+        <v>-10.795999999999999</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="18">
+        <v>-22.611000000000001</v>
+      </c>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="36"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="9">
         <v>20</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="12"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="K19" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" s="35">
+        <v>54</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="18">
+        <v>16</v>
+      </c>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="18">
+        <v>11</v>
+      </c>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="36"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="9">
         <v>20</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="12"/>
-      <c r="C21" s="10" t="s">
+      <c r="K20" s="40"/>
+      <c r="L20" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="37">
+        <v>20</v>
+      </c>
+      <c r="N20" s="9">
+        <v>20</v>
+      </c>
+      <c r="O20" s="9">
+        <v>20</v>
+      </c>
+      <c r="P20" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>20</v>
+      </c>
+      <c r="R20" s="9">
+        <v>20</v>
+      </c>
+      <c r="S20" s="9">
+        <v>19</v>
+      </c>
+      <c r="T20" s="9">
+        <v>19</v>
+      </c>
+      <c r="U20" s="9">
+        <v>20</v>
+      </c>
+      <c r="V20" s="9">
+        <v>20</v>
+      </c>
+      <c r="W20" s="9">
+        <v>16</v>
+      </c>
+      <c r="X20" s="9">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="17"/>
+      <c r="C21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="15">
         <v>-9.2230000000000008</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="15">
         <v>45</v>
       </c>
       <c r="F21" s="9">
@@ -1488,12 +2404,70 @@
       <c r="G21" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="12"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="W21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z21" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA21" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB21" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC21" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD21" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="9">
         <v>22</v>
       </c>
@@ -1501,11 +2475,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="9">
         <v>24</v>
       </c>
@@ -1513,11 +2487,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B24" s="17"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="9">
         <v>25</v>
       </c>
@@ -1525,11 +2499,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="12"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="9">
         <v>20</v>
       </c>
@@ -1537,11 +2511,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="12"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="9">
         <v>20</v>
       </c>
@@ -1549,17 +2523,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="15">
         <v>-10.7</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="15">
         <v>54</v>
       </c>
       <c r="F27" s="9">
@@ -1569,11 +2543,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="14"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="9">
         <v>20</v>
       </c>
@@ -1581,11 +2555,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="14"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="9">
         <v>20</v>
       </c>
@@ -1593,11 +2567,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="14"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B30" s="13"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="9">
         <v>20</v>
       </c>
@@ -1605,11 +2579,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="14"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="9">
         <v>20</v>
       </c>
@@ -1617,11 +2591,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="14"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="9">
         <v>20</v>
       </c>
@@ -1629,15 +2603,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="14"/>
-      <c r="C33" s="10" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="13"/>
+      <c r="C33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="15">
         <v>-10.795999999999999</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="15">
         <v>16</v>
       </c>
       <c r="F33" s="9">
@@ -1647,11 +2621,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="14"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="9">
         <v>19</v>
       </c>
@@ -1659,11 +2633,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="14"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="9">
         <v>20</v>
       </c>
@@ -1671,11 +2645,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="14"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="9">
         <v>20</v>
       </c>
@@ -1683,11 +2657,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="14"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="9">
         <v>16</v>
       </c>
@@ -1695,11 +2669,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="15"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="9">
         <v>19</v>
       </c>
@@ -1707,17 +2681,17 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13" t="s">
+    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="15">
         <v>-22.611000000000001</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="15">
         <v>11</v>
       </c>
       <c r="F39" s="9">
@@ -1727,11 +2701,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="14"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="9">
         <v>20</v>
       </c>
@@ -1739,11 +2713,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="14"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="13"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="9">
         <v>20</v>
       </c>
@@ -1751,11 +2725,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="14"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="13"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="9">
         <v>20</v>
       </c>
@@ -1763,11 +2737,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="14"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="13"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="9">
         <v>16</v>
       </c>
@@ -1775,11 +2749,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="15"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
       <c r="F44" s="9">
         <v>16</v>
       </c>
@@ -1787,7 +2761,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="E45">
         <f>SUM(E3:E44)</f>
         <v>240</v>
@@ -1798,7 +2772,50 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="51">
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="AE13:AJ13"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="M16:X16"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AJ12"/>
+    <mergeCell ref="M10:AJ10"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE11:AJ11"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:B26"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="E27:E32"/>
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="C39:C44"/>
@@ -1806,24 +2823,7 @@
     <mergeCell ref="E39:E44"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="E33:E38"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="E27:E32"/>
     <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:B26"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="C21:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1831,16 +2831,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +2857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1874,7 +2874,7 @@
         <v>3.3014999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1891,7 +2891,7 @@
         <v>3.0202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1908,7 +2908,7 @@
         <v>3.0207999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +2925,7 @@
         <v>2.7909999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +2942,7 @@
         <v>2.7204999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1959,7 +2959,7 @@
         <v>3.0057</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1976,7 +2976,7 @@
         <v>3.0716999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1993,7 +2993,7 @@
         <v>3.2726999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +3010,7 @@
         <v>2.8353000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2027,7 +3027,7 @@
         <v>2.8733</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -2044,7 +3044,7 @@
         <v>2.9569000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -2061,7 +3061,7 @@
         <v>3.1086999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +3078,7 @@
         <v>3.1029</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2095,7 +3095,7 @@
         <v>3.0714000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +3112,7 @@
         <v>3.1560000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -2129,7 +3129,7 @@
         <v>2.9780000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -2146,7 +3146,7 @@
         <v>3.0539000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2163,7 +3163,7 @@
         <v>3.1198000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2180,7 +3180,7 @@
         <v>3.1236000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -2197,7 +3197,7 @@
         <v>3.1467000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2214,7 +3214,7 @@
         <v>3.6804000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2231,7 +3231,7 @@
         <v>3.3734999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2248,7 +3248,7 @@
         <v>3.5691000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2265,7 +3265,7 @@
         <v>3.5032000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2282,7 +3282,7 @@
         <v>3.3776999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
@@ -2299,7 +3299,7 @@
         <v>3.2509999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -2316,7 +3316,7 @@
         <v>2.7652000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -2333,7 +3333,7 @@
         <v>3.2155999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -2350,7 +3350,7 @@
         <v>3.0478999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -2367,7 +3367,7 @@
         <v>3.1472000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -2384,7 +3384,7 @@
         <v>3.0363000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
@@ -2401,7 +3401,7 @@
         <v>3.0177</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
@@ -2418,7 +3418,7 @@
         <v>3.1688000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -2435,7 +3435,7 @@
         <v>3.1377999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -2458,31 +3458,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.1328125" style="2"/>
+    <col min="1" max="6" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2502,7 +3502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
@@ -2520,7 +3520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +3538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
@@ -2556,7 +3556,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
@@ -2574,7 +3574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
@@ -2592,7 +3592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>72</v>
       </c>
@@ -2610,7 +3610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>73</v>
       </c>
@@ -2628,7 +3628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>74</v>
       </c>
@@ -2646,7 +3646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
@@ -2664,7 +3664,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
@@ -2682,7 +3682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>77</v>
       </c>
@@ -2700,7 +3700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>78</v>
       </c>
@@ -2718,7 +3718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
@@ -2736,7 +3736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -2754,7 +3754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -2772,7 +3772,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
@@ -2790,7 +3790,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>83</v>
       </c>
@@ -2808,7 +3808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -2826,7 +3826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
@@ -2846,7 +3846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>87</v>
       </c>
@@ -2866,7 +3866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>88</v>
       </c>
@@ -2886,7 +3886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>89</v>
       </c>
@@ -2906,7 +3906,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
@@ -2926,7 +3926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>91</v>
       </c>
@@ -2946,7 +3946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>92</v>
       </c>
@@ -2966,7 +3966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -2986,7 +3986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>94</v>
       </c>
@@ -3006,7 +4006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>95</v>
       </c>
@@ -3026,7 +4026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
@@ -3046,7 +4046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -3066,7 +4066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>98</v>
       </c>
@@ -3086,7 +4086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>99</v>
       </c>
@@ -3106,7 +4106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>100</v>
       </c>
@@ -3126,7 +4126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>101</v>
       </c>
@@ -3146,7 +4146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>102</v>
       </c>
@@ -3166,7 +4166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>103</v>
       </c>
@@ -3186,7 +4186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>104</v>
       </c>
@@ -3204,7 +4204,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>105</v>
       </c>
@@ -3222,7 +4222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>106</v>
       </c>
@@ -3240,7 +4240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -3258,7 +4258,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>108</v>
       </c>
@@ -3276,7 +4276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>109</v>
       </c>
@@ -3294,7 +4294,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>110</v>
       </c>
@@ -3312,7 +4312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -3330,7 +4330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>112</v>
       </c>
@@ -3348,7 +4348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>113</v>
       </c>
@@ -3366,7 +4366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>114</v>
       </c>
@@ -3384,7 +4384,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>115</v>
       </c>
@@ -3402,7 +4402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>116</v>
       </c>
@@ -3420,7 +4420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>117</v>
       </c>
@@ -3438,7 +4438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -3456,7 +4456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>119</v>
       </c>
@@ -3474,7 +4474,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
@@ -3492,7 +4492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>121</v>
       </c>
@@ -3510,7 +4510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>122</v>
       </c>
@@ -3528,7 +4528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>123</v>
       </c>
@@ -3546,7 +4546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>124</v>
       </c>
@@ -3564,7 +4564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>125</v>
       </c>
@@ -3582,7 +4582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>126</v>
       </c>
@@ -3600,7 +4600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>127</v>
       </c>
@@ -3618,7 +4618,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>128</v>
       </c>
@@ -3636,7 +4636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>129</v>
       </c>
@@ -3654,7 +4654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>130</v>
       </c>
@@ -3672,7 +4672,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
@@ -3690,7 +4690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>132</v>
       </c>
@@ -3708,7 +4708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>133</v>
       </c>
@@ -3726,7 +4726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>134</v>
       </c>
@@ -3744,7 +4744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>135</v>
       </c>
@@ -3762,7 +4762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>136</v>
       </c>
@@ -3780,7 +4780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>137</v>
       </c>
@@ -3798,7 +4798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>138</v>
       </c>
@@ -3816,7 +4816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>139</v>
       </c>
@@ -3834,7 +4834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>140</v>
       </c>
@@ -3854,7 +4854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>141</v>
       </c>
@@ -3874,7 +4874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>142</v>
       </c>
@@ -3894,7 +4894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>144</v>
       </c>
@@ -3914,7 +4914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>145</v>
       </c>
@@ -3934,7 +4934,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>146</v>
       </c>
@@ -3954,7 +4954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>147</v>
       </c>
@@ -3974,7 +4974,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>148</v>
       </c>
@@ -3994,7 +4994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>149</v>
       </c>
@@ -4014,7 +5014,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>150</v>
       </c>
@@ -4034,7 +5034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>151</v>
       </c>
@@ -4054,7 +5054,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>152</v>
       </c>
@@ -4074,7 +5074,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>153</v>
       </c>
@@ -4094,7 +5094,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>154</v>
       </c>
@@ -4114,7 +5114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>155</v>
       </c>
@@ -4134,7 +5134,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>156</v>
       </c>
@@ -4154,7 +5154,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>157</v>
       </c>
@@ -4174,7 +5174,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>158</v>
       </c>
@@ -4194,7 +5194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>159</v>
       </c>
@@ -4212,7 +5212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>160</v>
       </c>
@@ -4230,7 +5230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>161</v>
       </c>
@@ -4248,7 +5248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>162</v>
       </c>
@@ -4266,7 +5266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>163</v>
       </c>
@@ -4284,7 +5284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>164</v>
       </c>
@@ -4302,7 +5302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>165</v>
       </c>
@@ -4320,7 +5320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>166</v>
       </c>
@@ -4338,7 +5338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>167</v>
       </c>
@@ -4356,7 +5356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>168</v>
       </c>
@@ -4374,7 +5374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>169</v>
       </c>
@@ -4392,7 +5392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>170</v>
       </c>
@@ -4410,7 +5410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
         <v>171</v>
       </c>
@@ -4428,7 +5428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
         <v>172</v>
       </c>
@@ -4446,7 +5446,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="8" t="s">
         <v>173</v>
       </c>
@@ -4464,7 +5464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4" t="s">
         <v>174</v>
       </c>
@@ -4482,7 +5482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4" t="s">
         <v>175</v>
       </c>
@@ -4500,7 +5500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
         <v>176</v>
       </c>
@@ -4518,7 +5518,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>177</v>
       </c>
@@ -4536,7 +5536,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>178</v>
       </c>
@@ -4556,7 +5556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>179</v>
       </c>
@@ -4576,7 +5576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>180</v>
       </c>
@@ -4594,7 +5594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>181</v>
       </c>
@@ -4612,7 +5612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>182</v>
       </c>
@@ -4632,7 +5632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>183</v>
       </c>
@@ -4650,7 +5650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>184</v>
       </c>
@@ -4670,7 +5670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>185</v>
       </c>
@@ -4690,7 +5690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>186</v>
       </c>
@@ -4708,7 +5708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>187</v>
       </c>
@@ -4728,7 +5728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>188</v>
       </c>
@@ -4748,7 +5748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>189</v>
       </c>
@@ -4768,7 +5768,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -4786,7 +5786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>191</v>
       </c>
@@ -4804,7 +5804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>192</v>
       </c>
@@ -4824,7 +5824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>193</v>
       </c>
@@ -4844,7 +5844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>194</v>
       </c>
